--- a/500all/speech_level/speeches_CHRG-114hhrg97993.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97993.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412630</t>
   </si>
   <si>
-    <t>Ralph Lee Abraham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Abraham. Good morning, everyone. Thanks for being here and thanks for your patience.    This oversight hearing of the Subcommittee on Disability Assistance and Memorial Affairs will now come to order. I first want to take a moment to welcome the subcommittee members, those who are new to Congress, new to the committee, and also those who are returning to this committee.    It is a true honor to sit as your chairman of this subcommittee and I am also pleased to welcome my colleague, sitting ranking member, Ms. Dina Titus.    By way of short introduction, I am a licensed physician, A military veteran, pilot, farmer, former veterinarian, a husband, and proud father, and proud grandfather now. So I am so pleased to be here and be a representative of the Louisiana Fifth district.    I know that the Veterans' Affairs Committee has been vigilant in its oversight of the Department of Veterans Affairs and has been recognized for its ability to proceed in a largely bipartisan and reasonable manner to benefit our military veterans and certainly their families.    In recent years, terribly grey matters have been productively addressed, and I look forward to continuing that tradition with Ms. Titus and members of the subcommittee on issues that are critically important to our Nation and certainly to our veterans.    To that end, we are here today at the first DAMA subcommittee oversight hearing committee of the 114th Congress to examine the appeals process for veterans' disability claims within the Department. We will focus upon appeals, remands, the rate of remands and the lengthy delays that plague the system.    I am aware that the Department chose to prioritize certain initial claims in recent years, but I must say that when veterans in my District shared that they wait 6, 8 and even 10 years and more to resolve a meritorious appeal of service-connected disability claim, I find that more than just alarming, and certainly unacceptable.    I imagine that both members of the dais and witnesses at the table will agree with that assessment. These claims for service connected disability benefits need to be adjudicated and explained correctly the first time. And when the appellate review is needed, that process must be thorough, swift and very fair.    This issue cannot be minimized or ignored as the VBA has consistently reportedly increased figures on the number of appealed claims, which currently sits near 290,000. The Board of Veterans' Appeals reports an inventory of approximately 60,000 appeals and project explosive increases in coming years.    That means that over 350,000 appeals are currently stockpiled. Some have bounced back and forth in the process for again, well over a decade. And each stage of the appellate system constitute delays, and multiple years, it is not weeks or months, it is years.    So despite the existing statutory requirements, we now know that it the appeal claims are often placed on the back of the burner in favor of VA deciding initial claims as the VA reports that the notices of disagreement period can offer sometimes over 400 days.    The average length of time in the next step of the appeals process between the filing of the substantial appeal and the issuance of a board decision is 960 days.    By the VA's reported figures, nearly half of the BVA decisions result in remand, which often extend the veterans delay by additional years. Unfortunately, the delay alone is not the sole problem facing the veterans in the appellate system.    I understand just 2 months ago, the Court of Appeals for veterans' claims held the Secretary of Veterans Affairs in civil contempt, citing the Department's gross negligence in ignoring any veterans who repeatedly raised concern on an appeal that had been remanded to the Department. The court noted that the veterans were frustrated because the VA seemingly acts with little urgency on remanded claims.    As to this particular case, the court noted that the VA's inactions, ``Conjured a vision of a drowning man, watched by a lifeguard, in a nearby boat, equipped with life preservers and rescue ropes, who decides to do nothing, even though the drowning man is blowing a whistle and firing flares to call attention to his plight.'' That is pretty strong language, but ladies and gentlemen, we have real problems within the system.    I anticipate that our panelists this morning will provide helpful information on their respective roles as well as challenges to the existing process. From the Veterans Administration, including also the Appeals Management Center, and Board of Veterans' Appeals, veterans service organizations and attorney advocates, I thank you all for coming today and I would like to briefly welcome our witnesses.    On the first panel we have Ms. Beth McCoy, Deputy Under Secretary of Field Operations. Thank you for being here on behalf of the Veterans Benefits Administration who is accompanied by Mr. Ronald Burke, Director of the Appeals Management Center and the National Capital Region's Benefits Office. Also on the panel is Ms. Laura Eskenazi, the executive in charge and vice chairman of the Board of Veterans' Appeals.    And after we conclude with panel one, we will see seat a second panel consisting of Mr. Gerald Manar, Deputy Director of National Veterans Service, Veterans of Foreign Affairs; Mr. Zachary Hearn, Deputy Director for Claims, Veterans Affairs and Rehabilitation Division within The American Legion; Ms. Diane Boyd Rauber, Associate General Counsel for Appeals with Paralyzed Veterans of America. Mr. Paul Varela, Assistant National Legislative Director of Disabled American Veterans; and Mr. James Vale, Director of the Veterans Benefit Program of Vietnam Veterans of America.    Then panel 3 will include Mr. Barton Stitchman, Joint Executive Director of the National Veterans Legal Services Program; Mr. Kenneth Carpenter, founding member of the National Organization of Veterans Advocates.    With those introductions compleat, I also thank the member who is not on this committee but who has expressed an interest in today's hearing's topic, I would like to ask unanimous consent that Representative O'Rourke be allowed to participate in today's hearing.    Hearing no objection, so ordered.    Thank you all for being with us again today, and I now yield to our ranking member for her opening statement.    [The prepared statement of Chairman Ralph Abraham appears in the Appendix]</t>
   </si>
   <si>
     <t>412318</t>
   </si>
   <si>
-    <t>Dina Titus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Titus. Thank you, Mr. Chairman. I want to congratulate you on your recent election to represent Louisiana's Fifth Congressional District, and also on your appointment to the chair this very important committee.    I was fortunate to have a very productive relationship with the former chairman, Mr. Runyan. And I look forward to continuing this committee's tradition of working in a bipartisan fashion to be sure that we provide the benefits that all our veterans deserve.    I am excited to be the ranking member of this subcommittee, and I look forward to the work we have outlined and are going to be undertaking in this Congress.    As many of you in this room know, the problems with the appeals process is a recurring topic in this subcommittee. Since joining the subcommittee 2 years ago, I have been concerned about the looming backlog of appeals at the VA. Almost 2 years ago, in June of 2013, our subcommittee met, and I raised the concerns that we are trading a claims backlog for an appeals backlog. Trading the devil for the witch, so to speak. As we clean up the claims, are we going then to create a problem with appeals?    My statement then is equally applicable today. I warned at that time of an impending appeals tsunami and the need to have a plan to address the anticipated growth in the number of appeals.    While the VA and the VBA have increased their output, all the metrics continue to show that the problem is growing. And veterans in Nevada and across the country are waiting far too long for a VA decision.    As you heard the chairman, who gave some pretty compelling statistics, it is just taking too long. Nationally the average length of time to receive a decision from the VBA in 2013 was 1,255 days. That is nearly, 3\\1/2\\ years, 3\\1/2\\ years. That is way too long.    In Nevada, there are close to 1,400 appeals waiting to be adjudicated. And when a veteran comes to my office to say what has happened to my appeal, it is not very encouraging to go tell him, we don't know and it is going to take 3 years before we find out. That is just not acceptable.    I am concerned that as we address this problem, we haven't been provided with a detailed plan of how we are going to address it in an overall fashion. We are once again receiving piecemeal recommendations instead of a comprehensive plan. I think we need to take action so we don't get too far behind and we are not having this exact same hearing 2 years from now.    In Congress here, we need to work collaboratively with the VA and with the VSOs to come up with that plan and create a system that will deal with these appeals in a timely fashion. But we need also to ensure that while we are doing that we are giving them a full and careful evaluation, we are not just rushing through the process.    In the 113th Congress, I highlighted a need to form a task force that would include the key stakeholders, would meet, have a hands-on approach, and come up with such a plan they could present to us. I appreciated at that time Chairman Miller's support for the idea and it eventually did pass the House.    Today, I plan to reintroduce that same legislation and I would welcome members of this committee to join me as cosponsors.    It is unfortunate that we have lost two years during this time when we could have had a comprehensive plan completed, and then we would be ready to meet the challenge as opposed to talking again about what we might need to do.    Now, I understand that the VA has conducted a study to better understand the appeals process from the veteran's standpoint and I look forward to having you all share that with me and the members of this committee and the chairman especially.    To me, the situation is really clear too many veterans have waited too long to have their appeals evaluated. It is up to us to try to work with the VA to improve that system and improve it fast. We need a better plan and I think that commission will help us get there. We need ideas from the experts so we can get to work.    Another idea our subcommittee should explore is one that has been proposed by Mr. O'Rourke and Mr. Cook. And I am glad Mr. O'Rourke is here to create a fully developed appeal, similar to the fully developed claims initiative that has been so popular, so I hope we will hear more about that.    Again, thank you, Mr. Chairman. I look forward to working with you and I am glad we are starting off early on this issue.    [The prepared statement of Ranking Member Dina Titus appears in the Appendix]</t>
   </si>
   <si>
@@ -73,18 +67,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>McCoy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. McCoy. Mr. Chairman, ranking member, members of the subcommittee. Thank you for the opportunity to discuss VA's commitment to reducing the pending inventory of appeals and increasing efficiency within the process.    The VA has made significant progress, 60 percent reduction in 22 months, on its goal to eliminate its disability claims backlog, which is any rating claim that is pending more than 125 days, and improve the quality of its decisions on claims.    VBA set a record production in fiscal year 2014 over 1.3 million claims completed without sacrificing quality, which at the claim level is at 91 percent now, compared to 83 percent in 2011. Looking at quality down at the medical issue level, the accuracy is at 96 percent.    Amidst VA's record-breaking production we remain committed to making the appellate process more timely and efficient for our Nation's veterans and their families.    With this increased rating production, VA's volume of appeals has grown proportionately. Historically, the rate of appeal has remained steady over about the last 20 years, regardless of production or quality. VA's historical administrative appeal rate has remained constant at about 10 to 11 percent of all claimants filing a notice of disagreement or what we call an NOD. And about 4 to 5 percent then completing an appeal to the Board of Veterans' Appeals.    These statistics indicate that veterans tend to exercise their right to appeal at the prevailing rate regardless of the nature of VBA's initial decision. This data also reflects there is no correlation between accuracy of the initial claims decisions and the rates of appeal.    In fiscal year 2014, VBA received 145,000 NODs, which equates to about 11 percent of the claims decided by VBA that year.    The majority of the appellate process is conducted at VBA's regional offices before the case is transferred to the Board for a final agency decision. Each regional office is required to review the appellant's claim file, many of them are multi-volume files, and obtain or make substantial effort to obtain all the evidence that is relevant to the case.    Due to the open record for appeals, appellants can submit new evidence or make new arguments at any time resulting in many cycles of additional development.    During the review, the RO will also grant additional benefits as warranted along the way, allowing veterans to receive compensation benefits more quickly.    It should be noted that approximately 72 percent of appeals are from veterans who are already in receipt of compensation benefits. VBA also oversees the Appeals Management Center, or the AMC, in Washington, DC, which was established in 2003. It is a centralized resource for processing of appeals remanded by the Board for additional development, about two-thirds of which are due to additional evidence received after they have been certified to the Board.    VBA allocates significant resources to appeals in its regional offices, about 950 full-time employees right now, and at the AMC, about 191 full-time employees.    Members of the appeals teams in the regional offices and AMC are dedicated to working appeals only during normal business hours, and have been completing disability compensation claims during overtime hours.    In fiscal year 2014, VBA took almost 182,000 appeal actions, an increase of 13.4 percent from the prior year. VBA is also redesigning the manner in which employees are evaluated. We have launched a performance standard work group comprised of our leaders, union leaders and employees to do the work. To fundamentally change performance standards of claims processors from task-oriented points to a system that is one focused on veteran outcomes. The effort also includes input from others outside of VA on how performance is measured in other agencies and in the private sector.    Just as we have transformed the rating claims process, we are looking also to transform the appeal process, using employee training, tools, streamlining processes and implementing modern technology. It is not something we can do ourselves, we count on working with Congress, the veterans service organizations and other stakeholders to explore long-term legislative solutions that provide veterans the timely and meaningfully right of appeal that they deserve.    This concludes my remarks. I will be happy to address any questions you have.    [The prepared statement of Ms. McCoy appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you.    Ms. Eskenazi, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Eskenazi</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Eskenazi. Thank you. Good morning, Chairman Abraham, Ranking Member Titus and subcommittee members. My name is Laura Eskenazi. I am the vice chairman and executive in charge of the Board of Veterans' Appeals. As you noted with me from the Veterans' Benefits Administration is Beth McCoy, Deputy Under Secretary for Field Operations, and Ronald Burke, Director of the Appeals Management Center.    Thank you for inviting us here todays to discuss VA's commitment to providing veterans with timely and quality appeals decisions. We are here today representing the dedicated hardworking employees at VA, many of whom are veterans or family members of veterans.    Working closely with Secretary McDonald, all of us are deeply committed to increasing efficiencies that we may provide our Nation's veterans with the outstanding service they deserve.    The VA appeals process is very different from any other appeals process. It is not one in which a single appeals office in VA assesses whether to affirm or reverse a prior decision. The responsibility for processing appeals in VA is shared between the Veterans Benefits Administration and the Board of Veterans' Appeals, which is why you see both offices represented at the table today.    The VA appeals process is complex. It has multiple stages, it is non-linear. The process is heavily set in law with a continuous open record that welcomes submission of new evidence and new arguments from the veteran at any time.    As a result of this open record framework, the matter on appeal often no longer resembles the initial claim. Moreover, the open record often requires VBA to cycle back to an earlier step in the process as opposed to advancing to a final Board decision. This is required to comply with the legal requirements set forth in statute and binding case law to provide the veteran with the right to one review on appeal to the Secretary.    Throughout an appeal, the VA has the duty to assist the veteran in establishing his or her appeal by ensuring that the record of evidence is complete, and current for purposes of adjudication.    Given that nearly all appeals involved medical disability determinations, and that medical conditions evolve, appeals are frequently sent back or remanded to gather new evidence, and issue a new decision on that new evidence, which the veteran can then appeal back to the Board.    The landscape of the veterans appeals process changed in 1988 with the establishment of the United States Court of Appeals for veterans claims. As a result of the legal complexity that has developed with court review, it has become increasingly challenging for VA to complete an appeal by reaching a final decision. Simply put, the current design of the appeals process is incompatible with timely final appeals decisions. We have seen the remand rate from the Board rise steadily over the years since judicial review from a low of 23 percent in fiscal year 1990, to over 45 percent in the last 3 fiscal years.    During the past year, VA has actively participated in collaborative discussions with the veterans service organizations on ideas for reform. One concept that gained traction was to provide veterans with a choice of a different, more streamline avenue of appeal. This voluntary choice is the core principle of what has been referred to as the fully developed appeal, or FDA.    While the FDA would not be a silver bullet, it would offer a more efficient finality-driven approach, and perhaps serve as a model for other streamlining ideas.    In conclusion, veterans are waiting too long for final appeals decisions under the current legal framework. We are very thankful for the work by Congress, this committee, and other stakeholders, including the veterans service organizations, to explore long-term solutions to provide veterans with the timely appeals process they deserve.    Thank you. I would be happy to answer any questions from the committee.    [The prepared statement of Ms. Eskenazi appears in the Appendix]</t>
   </si>
   <si>
@@ -205,9 +193,6 @@
     <t>412191</t>
   </si>
   <si>
-    <t>Doug Lamborn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman, Chairman Abraham and Ranking Member Titus, congratulations to both of you for your appointments, I look forward to working with you and helping you in this important subcommittee.</t>
   </si>
   <si>
@@ -277,9 +262,6 @@
     <t>412519</t>
   </si>
   <si>
-    <t>Raul Ruiz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ruiz. Thank you very much, Mr. Chairman, and ranking member for holding this meeting, this hearing. This is very important to the veterans throughout our districts and throughout our country.    I am proud to represent the eastern portion of the Riverside County which has the ninth largest veteran population in the country. More than 50,000 veterans reside in my District alone. I am honored to once again represent them on this subcommittee where we will work together and shine a light on problems in the VA and provide veterans the benefits they have earned.    Today we are focused on ensuring that veterans have the chance to appeal decisions on their benefit claims, which for many will mean the difference between access to benefits and even life and death.    As today's panelists have testified, the number of appeals pending already approaches 3,000,000 and is only expected to grow in coming years. As Representative Titus mentioned, because we improved the claims backlog with the sheer number 10 percent naturally will be appealed. The appeals claims will go up as well. So we can count on and need to be prepared to remedy that as soon as possible.    We have made a commitment to caring for our veterans, and we owe them an answer on appeals for that care in a timely and accurate fashion. Especially when more than a quarter of veteran appeals are successful, when a decision is finally issued. So that's one out of four get those decisions reversed, and get the benefit, and the claims, and the help that they need.    That is why I am reintroducing the Veterans Access to Speedy Review Act. My bill addresses the unaccessible appeals bills backlog by increasing the use of video teleconferencing, as you mentioned, during an appeals hearing as a substitute for requiring the veterans to attend in person. This is evidence-based policy and I will give some evidence behind how that works.    My legislation will guarantee veterans the option of video teleconferencing, guarantee them the option of video teleconferencing for hearings before the Board of Veteran Appeals to allow a hearing at the earliest possible date. In 2013, on average, video conference hearings were held 110 days sooner than in-person hearings. It works.    Should any veteran prefer an in-person hearing, my bill ensures that person will have the final say on the manner of hearing for their appeal. This simple improvement will increase flexibility to relieve the physical and financial burdens on veterans who must travel to appear at appeal hearings in person. It will also streamline the review process to decrease wait times and save taxpayers money. The VA testified that this bill will make processing claims more efficient and eliminate substantial travel costs to our veterans and the VA system.    This bill is a commonsense, cost neutral solution which is why it passed the full Veterans Affairs Committee by a bipartisan voice vote last Congress. So I urge my fellow subcommittee members to support this bill and start bringing veterans their earned benefits as soon as possible.    So to the panelists, and to my colleagues, with that in mind would you support the increased use of veterans requested teleconferencing by the Board of Veterans' Appeals? First, to my colleagues, if you do so, would you kindly consider being original cosponsors before I reintroduce this bill? To my Republican colleagues as well. And now to the panelists, can you describe how this has actually produced the results and how veterans have utilized this veteran processing tool and option?</t>
   </si>
   <si>
@@ -301,9 +283,6 @@
     <t>412651</t>
   </si>
   <si>
-    <t>Ryan A. Costello</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Costello. Thank you. My question is for Ms. Eskenazi, and ultimately, the question is going to be how and what stakeholder support do we need in order to transform the appeals process with legislative reform. I thought that you laid out very well for me what the Veterans Traditional Review Act in 1988 did to complicate--it is not to suggest that we shouldn't have that law--but to complicate the synchronizing that with the way you go about developing a claim and handling it judicially. All within the context of have an open record. I can appreciate the need for an open record. We are dealing with veterans, we are not dealing with a land use hearing or a criminal matter where you have your day in court, if you didn't make your argument, you are done.    Here I think, particularly with new evidence possibly coming about or a claim not being fully ripe when the claim is made, but still the need to get that claim in the pipeline because you need the care or the benefit.    I can also appreciate from the remand perspective that two-thirds of the reason for a remand is because of additional evidence or due to a change in circumstances after the claim arose, so I can understand that. Clearly, though, there is a problem with the remand process here and how that keeps claims in the system for a very, very long time.    It seems to me that there needs to be a remand reform element to how we address this legislatively. It needs to be fair to veterans. It also needs to enable you to streamline this process so that when a veteran is submitting a claim, either as much of that claim comes about or every alternative theory or justification in an argument that can be made is made at that time. But share with me, as you talk about clearly being a stakeholder in this from a legislative reform perspective, what we can do to help reduce the number of remands, either on the way in the door by making the claims easier to process, or if more evidence is needed and that is why it is being remanded, isn't there a way to maybe short circuit the time lag on the remand in order to get that evidence back in the door? What are your thoughts? How do we make it a more streamline process?</t>
   </si>
   <si>
@@ -331,9 +310,6 @@
     <t>412516</t>
   </si>
   <si>
-    <t>Julia Brownley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Brownley. Thank you, Mr. Chairman.    I wanted to ask about the money morning workload report, which is helpful with regards to our oversight and tracking of the current claims. And I am wondering if there could be a creation similarly for the appeals process.    I understand that it is different, the open record framework that you have been speaking about, but I think it is important to have that kind of transparency and our ability to be able to oversee and track that we are improving and improving--excuse me, the appeals process as a tool.</t>
   </si>
   <si>
@@ -367,18 +343,12 @@
     <t>412629</t>
   </si>
   <si>
-    <t>Mike Bost</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bost. I will yield.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Abraham. Okay.    Mr. O'Rourke.</t>
   </si>
   <si>
-    <t>O'Rourke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Mr. Chairman, Ranking Member Titus, thank you for allowing me to join you today in the hearing.    Ms. Eskenazi, I didn't fully catch what you said in your opening statement about a fully developed appeal. It seemed to diverge from your written testimony. Could you repeat that or expand upon what you said?</t>
   </si>
   <si>
@@ -490,9 +460,6 @@
     <t>412646</t>
   </si>
   <si>
-    <t>Lee M. Zeldin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Zeldin. Mr. Abraham, I look forward to serving with you and Ms. Titus.    It is an important subcommittee. I represent the 1st Congressional District of New York. Suffolk County has the highest veterans population of any county in New York State, the second-highest population of any county in the country. We are served by the VA in Northport.    I was serving in the State Senate previously, and we received a lot of outreach from people who were so frustrated with the backlog of the Federal system. They were reaching out to their State Senator, their councilmen, their county legislator, whoever could possibly help them. I am honored to serve on this committee and this subcommittee, and I appreciate you being here and anything that you can possibly do to help reduce that backlog. My office, we are looking to be partners with you with the challenges that you face.    And thanks again for yielding.</t>
   </si>
   <si>
@@ -511,45 +478,30 @@
     <t xml:space="preserve">    Mr. Abraham. Ladies and gentlemen, thank you for being here. We appreciate your presence. You are now excused, and we will pause just for a minute while we seat the second committee. Thank you.    On this second committee, we are going to get as much of it done as we can before we have to recess for voting, so we are going to move along very efficiently.    Welcome, everyone. Mr. Manar, you are recognized to present the testimony of Veterans of Foreign Wars for five minutes.</t>
   </si>
   <si>
-    <t>Manar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Manar. Thank you.    Chairman Abraham, Ranking Member Titus, and members of the subcommittee, thank you for the opportunity to present to you the views of the 1.9 million members of the Veterans of Foreign Wars of the United States and its auxiliaries on this important topic.    I would like to talk about some of the issues facing VA and the Board of Veterans Appeals, as well as suggestions for addressing some of those problems. The VA says that it made over 1.3 million decisions in compensation and pension disability claims in 2014, which is over 150,000 more decisions than ever before. At a 10 percent appeal rate, VBA would be expected to receive approximately 130,000 notices of disagreement based on those decisions, roughly 13,000 more than in the previous year. Sadly, those appeals will be in line behind the nearly 300,000 appeals VA currently has. These appeals affect real veterans and their families.    Mr. Chairman, there are over 4,900 appeals pending in the New Orleans regional office. Nevada has 1,400 appeals pending, while California has 16,500 appeals awaiting action in their three regional offices. As bad as these numbers are, they pale in comparison to the over 25,000 appeals pending in Florida. If past is prologue, those appeals may wait over three years before VA transfers them to the Board of Veterans Appeals.    There are several reasons why the appeals workload has grown from 130,000 in 2004 to about 300,000 today. With the advent of judicial review in 1988, a significant number of decisions by the courts have forced the VA to more closely follow the letter of the law and regulations. On several occasions VA has been forced to readjudicate thousands of decisions, increasing work in both regional offices and the Board of Veterans Appeals.    Finally, many court decisions required veteran law judges to write clearer, more comprehensive decisions for appellants. These are all good things. However, much work had to be redone, and decisions today may take somewhat longer to write, reducing production at the Board of Veterans Appeals.    With the creation of the Secretary's twin goals of no claim older than 125 days and quality at a 98 percent level, VBA has focused with military-style precision on reducing the disability claim backlog. Appeals team personnel, including decision review officers, were frequently directed to process other work. As a consequence, appeals grew from 255,000 at the beginning of 2014 to close to 300,000 today.    It is time for VA to declare victory and start processing the rest of its work. What actions can be taken to stop the increase and start driving down the appeals workload? There are no magic bullets to solving this problem. Solutions must be crafted with this injunction in mind, that any solution that helps VA process more appeals cannot be done at the expense of veterans and the rights they currently enjoy. That is what makes this really hard work, finding solutions that allow VA to process appeals faster without hurting the due process rights of veterans and their families.    We make five specific recommendations in our written testimony. These recommendations include an increase in BVA and VBA staffing, release of the Statement of the Case within 30 days of receipt of a Notice of Disagreement where there is no additional evidence submitted, eliminate the new material evidence requirement to reopen a claim, and reenergize the decision review officer position to make it more effective in reducing appeals.    Finally, building on the ideas of a committee member, service organizations and representatives from the VA worked together last year to explore and expand on a fully developed appeal initiative. The idea is to fast track certain appeals to the BVA following a waiver of existing rights by claimants. While we support the FDA concept, there are hurdles which need to be overcome before the idea is ready for testing.    The most significant problem involves the waiver of rights by claimants. In order to be effective, any waiver must be based on a clear understanding of the decision made by VA. As we describe in our written testimony, it is our belief that the notices provided by VA to many claimants simply do not give them the information they need to understand the reasons for the decision. Many notice letters fail to detail specific evidence used in making the decision.    Further, many decisions offer only conclusions as a substitute for analysis of the evidence and reasons and basis for the decision. As a consequence, claimants don't have enough information to decide whether the decision was most likely correct, what the evidence showed, and what evidence is needed to obtain a different result. Without this information, many claimants do not have enough information to knowingly waive the procedural rights they have under the current appeals process.    In conclusion, we applaud the VA and members of this committee and the VSO community for working together to find solutions to reduce the appeals backlog. However, the key to making any FDA initiative work are two factors. The claimant must have access to all the evidence considered by VA in making its decision, and the claimant must be fully informed of the reasons and basis for each decision made by the VA.    Mr. Chairman, this concludes my statement. I will be happy to answer any questions you or the committee members may have.    [The prepared statement of Mr. Manar appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you. Mr. Hearn, you have five minutes.</t>
   </si>
   <si>
-    <t>Hearn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hearn. Thank you. 1,461 days, this is the number of days in a standard four-year armed services enlistment. 1,937 days, this is the average number of days a veteran will wait to have a claim adjudicated from initial filing through the various stages of appeals. It is staggering that a veteran may have to wait longer to have a claim properly adjudicated than they may have served through their service contract.    Good afternoon, Chairman Abraham, Ranking Member Titus, and members of the committee. On behalf of National Commander Helm and the 2.4 million members that comprise the Nation's largest wartime veterans' service organization, the American Legion is eager to share our research and the firsthand experience regarding the appeals process.    As you know from my written testimony, the American Legion has more than 3,000 accredited service officers assisting more than 700,000 veterans nationwide. Just over a year ago the American Legion testified regarding VA's accuracy in adjudication based upon the American Legion's Regional Office Action Review Program and challenged VA's accuracy statistics.    Understanding the importance of accuracy is critical to fixing the appeals process. When VA fails to accurately adjudicate claims from the beginning, veterans are forced into the far lengthier and more complicated appeals process. Completing claims accurately the first time is the very simple answer to eliminating large volumes of claims in the appeals system.    VA identifies a backlog claim as a claim that has not been adjudicated within 125 days. VA does not consider appealed claims as backlogged. They merely refer to them as an inventory. But let's be clear. For the nearly 290,000 veterans awaiting adjudication of their appeals, a figure larger than the population of Cincinnati, they consider their claims backlogged.    Nearly 75 percent of claims presented at the Board of Veterans Appeals are found to either have been inappropriately denied at the regional office or inadequately developed and prematurely denied. VA can correct this by starting at the regional office. Too often claims remanded by BVA are remanded for improper development and for failing to follow their legally mandated duty to assist. Often American Legion national appeals representatives will note VA did not offer consideration regarding if a condition manifested secondary or was aggravated by a previously service-connected condition.    If VA examiners were compelled to consider if conditions manifested in ways other than directly related to service, many remands for examinations would be eliminated. The American Legion's ROAR trips have repeatedly noted this in our written reports. While VA asserts it does not place a higher priority on the amount of claims adjudicated, its current work credit structure does not address accuracy in its metric, which rewards speed over quality.    In the past year, the American Legion established Veteran Crisis Command Centers at various locations throughout the country resulting in the awarding of nearly $1 million in retroactive benefits. These events allowed veterans to gain instant personalized access to Legion and VA personnel. In nearly every location, we came across veterans with claims that had errors in their adjudication.    Fortunately through the joint efforts of the American Legion and VA, we are able to correct these errors. However, for these veterans the years of suffering and the impact it had on their employment and their families cannot be restored simply through the disbursement of a retroactive payment.    Today if a claim is remanded by a BVA judge, the instructions are forwarded to the Appeals Management Center to have requisite development conducted. These remands, or returned claims, come with clear and distinct instructions from the judge, yet the American Legion consistently sees cases remanded multiple times despite having clear instructions provided by that BVA judge. This is what is known as the hamster wheel of remands where a veteran remains in adjudication purgatory while waiting for VA to conduct proper development and finally render a decision.    The most common questions we get from veterans are why does it take so long? Why can't VA get it right the first time? Or are they just waiting for me to die? Often you can hear the pain in their voice. As an advocate, it kills me to constantly hear their frustration and desperation. This is what veterans face, an adjudication process that rewards the quick and not the accurate, an appellate process that repeatedly notes errors in development, and adjudication that may cause years of hardship for our Nation's veterans.    During a testimony last summer, former Ranking Member Michaud stated, ``There should not be a victory lap taken by VA if they eliminate the backlog of claims meanwhile having an abundance of appeals in inventory.'' The American Legion wholeheartedly agrees. The greatest impact on the appeals process would be eliminating the need to appeal in the first place. VA needs to eliminate the current work credit structure that places a greater emphasis on quantity of claimed adjudicated rather than the quality of those adjudications.    An increased emphasis on training and the manner that the training is delivered to its adjudicators needs to happen now. As VA works to eliminate the backlog, we need to ensure that they are not moved from a backlog claim to a backlogged appeal. Most importantly, we need to ensure that our veterans finally begin receiving the benefits and services they have earned through their dedicated service.    Again, on behalf of our National Commander Michael Helm and the 2.4 million members of the American Legion, we thank the committee for inviting us to speak today, and I will be happy to answer any questions the committee may have.    [The prepared statement of Mr. Hearn appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you, Mr. Hearn. Ms. Rauber.</t>
   </si>
   <si>
-    <t>Rauber</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Rauber. Chairman Abraham, Ranking Member Titus, and members of the subcommittee, Paralyzed Veterans of America would like to thank you for the opportunity to offer testimony regarding the appeals process. There are many problems contributing to delayed appeals which has become more apparent with VA's focus on reducing the claims backlog. A major cause of delay is the high number of remanded appeals.    Approximately 45 percent of appeals are remanded often due to an order for a new VA medical examination. This action occurs even when favorable private medical evidence or opinions from VA treating physicians are in the record.    In PVA cases the record often includes extensive medical information from a Spinal Cord Injury Center physician who has specialized expertise and an intimate knowledge of the veteran's medical condition. Too often for PVA members, the opinion of a C &amp; P examiner who reviews the file and sees the veteran once is weighed more heavily than the opinions of the Spinal Cord Injury Center experts.    When unnecessary resources are used to seek medical information already in VA's possession, not only is the veteran's individual appeal delayed, the overall process slows. At times these requests are also in conflict with the benefit-of-the-doubt doctrine which requires the VA and the Board to grant a claim when there is a proximate balance of positive and negative evidence.    When an appeal is remanded, it typically returns to VBA jurisdiction through the Appeals Management Center. It is at this step where appeals tend to stall and be subject to multiple remands because the AMC or regional office fails to ensure the Board's specific orders are fulfilled. For example, the Board may order a new examination by a medical specialist which is instead completed by a nurse practitioner, or the Board poses specific questions for response from the examiner which are not fully completed, or the VA fails to follow VHA procedures for scheduling the examination, resulting in the veteran missing it. These are just a few examples, but when the AMC fails to ensure compliance with the Board's orders, the appeal must be remanded again, adding significant delay before the veteran receives a final board decision.    Remanded appeals can take a year or more to complete. If 45 of every 100 decisions are remanded, it stands to reason that the number of appeals will only increase as each remanded appeal that is not granted in full must return to the Board for further review while original appeals continue to be certified to the Board. New original appeals linger while older remanded appeals with earlier docket dates are decided.    A greater reliance on private medical evidence or VA treating medical evidence and more consistent application of the benefit-of-the-doubt doctrine could reduce remands. A review of examination scheduling procedures would also be helpful, as would a review of AMC training, procedures, quality review, and accountability, to ensure proper handling of remands.    Furthermore, when the Board determines a veteran is entitled to advancement on the docket due to age, financial hardship, or serious illness, that designation should be honored and enforced on remand.    There are other ideas to reduce delay. PVA has partnered with other VSOs as well as VBA and Board Administration in a working group on how an expedited appeals pilot program might allow certain appeals to be decided in a more timely fashion.    It is the intent of PVA with VSO partners to support the introduction of bipartisan legislation to implement such a pilot program. In addition, PVA continues to support the strengthening of the DRO program and requiring DROs to work solely on appeals where their expertise can be of best use.    As has been discussed by several of the other panel members, an unexpected challenge has occurred in the area of technological improvement. PVA supported VA's adoption of VBMS. Unfortunately VBMS lacks appeals-friendly features to allow it to be efficient. We are pleased that the Board's administration has included VSOs in meetings to collaborate on ideas to improve VBMS specifically for appeals work. However, adequate funds must be ensured so the Board can accelerate VBMS improvements and continue to engages VSOs in that process.    Finally, Mr. Chairman, when a claimant files a meritless appeal or compels a representative to do so, that appeal clogs the system and draws resources away from legitimate appeals. Since 2012, PVA has required clients to sign a notice of limitation when they execute their power of attorney to acknowledge we will not appeal every adverse decision and reserve the right to refuse to advance any frivolous appeal in keeping with VA regulations.    To help a veteran make the most informed decision regarding the merits of an appeal, the VA should provide improved case-specific notice of the initial rating decision.    Mr. Chairman, we would like to thank you once again for allowing us to address this truly important issue, and we look forward to working with you in the 114th Congress.    I would be pleased to take questions.    [The prepared statement of Ms. Rauber appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you, Ms. Rauber. We are going to take a recess and go vote. We will be right back. Mr. Varela, you can continue for 5 minutes, please.</t>
   </si>
   <si>
-    <t>Varela</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Varela. Good afternoon, Chairman Abraham, Ranking Member Titus, and members of this subcommittee. DAV appreciates being invited to testify today to discuss the challenges facing the 360,000-plus veterans, dependents, and survivors with pending appeals. Over 95 percent of these pending appeals pertain to disability compensation benefits. Our written testimony today provides the subcommittee with a number of recommendations; however, my oral statement will focus on just a few.    First, VBA and the Board require adequate resources to process appeals. While, this is not the only solution, it is certainly part of it. It is estimated that VBA's total appeals inventory is roughly 360,000, of which roughly 65,000 are within the jurisdiction of the Board, and roughly 32,000 of these appeals are within the Board's physical possession. It is no understatement to say the appeals inventory is too large and this number continues to climb every day.    The fact that appeals keep rising suggests a mismatch in manpower needed to process the appeals at both the Board and regional office level. Also contributing to the growth of appeals has been VBA's reliance on the appellate workforce to process claims for disability compensation. VBA also relies on the appellate workforce in order to meet their 2015 goals of no claim pending over 125 days with 98 percent accuracy. This practice diverts personnel to focus on claims processing. VBA utilizes all available resources to achieve their 2015 goal, which contributed to a drastic increase in pending appeals.    Second, VBA's Decision Review Officer Program must be strengthened as it is one of the most critical and indispensable procedures available to appellants within the current appeals processing model. While an appellant elects the DRO option, it affords the option to resolve issues locally at the regional office level. For those appellants represented by DAV, our national service officers have direct access to decision review officers and often work with them to identify potential solutions to resolve appeals.    Given the critical nature of the DRO process, it must be strengthened and resourced adequately. Furthermore, the appellate workforce must focus their efforts on the appeal inventory and not repurpose to work claim-related initiatives. Unfortunately, VBA traded one backlog for another due to their all-hands-on-deck approach to realize the 2015 goals.    Third, Congress, VA, and stakeholders must look at innovative reforms to improve the appeals process. One innovation has become known as the fully-developed appeals pilot program. There is no one solution to remedy the problems facing veterans, dependents, and survivors within the appeals process. DAV, working together with Congress, stakeholders, VBA, and the Board believe that a good solution exists to offer relief for some with appeals. The FDA pilot program is meant to share some of the similarities and build upon the successes of the fully-developed claims program.    The FDA pilot would offer potential appellants a third option if they choose to file an appeal. They could choose the traditional appeals process. They could choose the decision review officer review process, or the FDA process. In the pilot FDA, an appellant would elect to forego several procedural steps within the current standard appeal processing model.    Some components of an FDA election trades the issuance of a statement of the case and hearings for quicker review of the record by the Board, allows an appellant to supply any additional evidence at the time of the election, allows for an opt-out option at any time up to the Board's ruling on the appeal, would preserve all due-process rights under the current appeal processing model if removed from the FDA, and has the potential to save roughly 1,000 days of appeal processing time.    An FDA election is not for everyone. It is not the cure-all to end-all. It gives some appellants another option by offering a safe bypass around some regional office processing requirements. It not only benefits veterans, their dependents and survivors directly by saving them up to 1,000 days of processing time, but would also relieve some of the pressure at the regional office level by diverting FDAs directly to the Board.    The FDA is still imperfect, but we continue to reach out to Congress and other stakeholders to assure that we arrive at a balanced, reasonable, and safe conclusion. We do want to acknowledge the efforts of Congressman O'Rourke, Congressman Cook, and their staffs for their work in the 113th Congress on the Express Appeals Act, which shares many similarities with the FDA proposal.    Finally, we also want to thank the subcommittee and your staffs for the willingness to listen to our input, recommendations, and concerns, and look forward to working together with you to approve the appeals process, for veterans, their dependents, and survivors, now and into the future.    Mr. Chairman, Ranking Member Titus, and members of this subcommittee, thank you for allowing DAV to testify at today's hearing. I am prepared to answer any questions you or the subcommittee may have.    [The prepared statement of Mr. Varela appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you, Mr. Varela.    Mr. Vale from the Vietnam Veterans of America. 5 minutes, please.</t>
   </si>
   <si>
-    <t>Vale</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Vale. Good afternoon, Chairman Abraham, Ranking Member Titus, and distinguished members of the subcommittee. Vietnam Veterans of America thanks you for the opportunity to present our views today. The real question that should be asked is why would we keep a claims system going that is wrong 70 percent of the time? VA-arranged decisions contain too many errors and Board decisions are too inconsistent. Any lasting solution needs to address these problems.    It is a well-established principle that VA's mission is to provide benefits to veterans and their families in a non-adversarial, pro-claimant system. When Congress enacted judicial review for veterans' claims in 1988, it did so with the clear intent to ensure a beneficial, non-adversarial system of veterans' benefits. We support modernizing the VA system so that all veterans receive more timely and accurate adjudication of their claims and appeals. And we support improving the efficiency of the claims adjudication and appeals process. Nonetheless, these changes cannot come at the expense of abandoning due process and other major aspects of the pro-claimant system designed by Congress.    VA's motto is ``To care for him who shall have borne the battle and for his widow and his orphan.'' In practice, however, it appears the mission for some VA bureaucrats is to limit the government's liability to our Nation's veterans by formalizing the claims and appeals process to the point where benefits are unfairly restricted. As General Bradley, VA's first administrator, said in 1946, ``We are dealing with veterans, not procedures; with their problems, not ours.    Veterans should not have to give up any of their rights in order for VA to process their claims and appeals more quickly. In the past, some VBA executives have even gone as far as to suggest reducing the notice of disagreement period from 1 year to just 60 days, change the standard review at the Board from de novo to appellate review, close the record at the Board and eliminate all decision review officer positions. Yet, none of these suggestions actually benefits veterans, but it does make the VA's job easier.    Vietnam Veterans of America has put forth eleven suggestions in our testimony that will move forward to fixing the VA system. You each have a copy of those items. The crutch of the problem here is VA has an inadequate number of staff to deal with its enormous backlog of claims and appeals and they work in a flawed work credit system that favors quality over quantity. Therefore, we suggest fixing the work credit system.    BVA's supervisors and employees need to stop gaming the work credit system. It shouldn't be easier and quicker to deny a claim than to grant one. VA still has to fulfill its statutory duty to assist. There should be no work credit awarded for taking shortcuts. If a claim is denied, no work credit should be awarded until the duty to assist is fulfilled.    Next, VA should increase the number of staff. VBA needs more raters and DROs, and the Board of Veterans' Appeals needs more veteran law judges. For example, let's look at the Waco regional office. They only have eight DROs, yet they have over 18,700 appeals. That is 2,300 appeals per DRO. That is the highest DRO workload in the country. Put in another way, they have eight DROs trying to do the work of 30. The national average is 640 appeals per DRO.    Mr. Chairman, would it surprise you that Waco makes up 15 to 20 percent of all of our appeals at the Board of Veterans' Appeals? The board has 65 veteran law judges. In contrast, the Social Security Administration has over 500. Clearly, the Board needs more veteran law judges as its appeals backlog continues to climb. An even better solution is a round table discussion or discussions among VSOs, members of this committee, and VA representatives to resolve these issues.    In closing, the war against Japan lasted 1,347 days. In 2013, it took VA an average of 1,603 days to issue a final agency decision on remanded veteran appeals. Mr. Chairman, the appeal should not last longer than the largest war our nation has ever fought.    Thank you for the opportunity to present our views today, and I should be glad to answer any questions you may have.    [The prepared statement of Mr. Vale appears in the Appendix]</t>
   </si>
   <si>
@@ -628,16 +580,10 @@
     <t xml:space="preserve">    Mr. Abraham. Well, we certainly thank you for helping our veterans. Continue to do so, please. You are excused.    We will pause just for a minute while we seat this third panel.    Welcome, gentlemen. So we have Mr. Barton Stichman of the National Veterans Legal Service Program; and Mr. Kenneth Carpenter of the National Organization of Veterans' Advocates.    Mr. Stichman, you are first recognized for 5 minutes, sir.</t>
   </si>
   <si>
-    <t>Stichman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Stichman. Thank you, Mr. Chairman, ranking member, and other members of this committee for the opportunity for the National Veterans Legal Services Program to address the appellate claims adjudication process. VA can do much to eliminate the disfunction that currently exists in the appellate claims adjudication system, but Congress can and should play a role in eliminating the disfunction that currently exists. NVLSP urges Congress to adopt five legislative solutions, which I think meet the answer to the questions that the chairman asked the last panel.    First, authorize the BVA to develop evidence itself without having to remand to the AMC or regional office. 15 years ago, then-Secretary of Veterans' Affairs, Anthony Principi, decided a partial solution to the hamster wheel phenomenon was to amend VA regulations to allow the BVA to develop additional evidence itself without remanding to the RO in a case in which the Board determined that a final decision could not be issued because additional development was necessary.    Forcing the BVA to remand to the AMC or the local ROs lengthens the adjudicatory process because the BVA does not have direct authority over the AMC and RO, meaning the BVA cannot control whether the AMC or RO provides expeditious treatment or properly complies with the remand instructions. Allowing BVA development without a remand to the AMC or RO further streamlines the appellate process by eliminating the need for the RO or AMC to review the record and prepare a written supplemental statement of the case before the case is returned to the BVA for another decision.    Second, provide the veterans organizations with the right to petition the VA General Counsel for a binding precedent opinion on the proper interpretation of a statute or regulation. This would address the lack of clear rules and precedents that burden the system now. By providing stakeholders, the veteran service organization, with the right to petition the VAGC to adopt a particular interpretation of the statutes of regulations that are supported by the petitioning VSO, the GC will be required to issue an opinion binding on the ROs and the BVA. Currently, the VA General Counsel has the authority to issue these binding precedent opinions on its own, but this authority is seldom utilized.    Three, authorize the Court of Appeals for Veterans Claims to certify a case as a class action on behalf of similarly-situated VA claimants, require the VA to put a moratorium on the claims of all similarly-situated claimants while the case in court is pending; and once the court finally decides the case, require the VA to apply the decision to all pending claims that were subject to the moratorium. This streamlines the adjudicatory process for similarly-situated cases.    Four, prohibit the regional offices and the BVA in a case in which there is positive evidence supporting the award of benefits from developing negative evidence against the claim unless the RO or BVA first explains in writing why the existing evidence is not sufficient to award benefits.    One reason for the existence of the hamster wheel phenomenon is that in a case in which the veteran submits adequate positive evidence in support of a claim, the BVA, or even the RO, sometimes does not simply award the benefits sought. Instead, the agency extends the life of the claim by remanding to obtain yet another medical opinion from a VHA physician. Veterans advocates call this longstanding VA practice developing to deny. In addition to fostering the hamster wheel phenomenon, the practice is inconsistent with the pro-claimant adjudicatory process and the statutory benefit-of-the-doubt rule.    Five, require the VBA to change its work credit system for VA adjudicators so that raters do not get work credit for denying a claim without first obtaining the evidence needed to comply with the VA duty to assist.    I see my time is up, and I will be happy to answer any questions you may have.    [The prepared statement of Mr. Stichman appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you, Mr. Stichman. Mr. Carpenter, you have 5 minutes there.</t>
-  </si>
-  <si>
-    <t>Carpenter</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Carpenter. Thank you, Mr. Chairman. The National Organization of Veterans Advocates wants to thank this committee for offering us this opportunity to offer testimony on these very important issues. I have been assisting veterans and their families with VA appeals for more than 30 years. I began doing appeals prior to judicial review. And prior to judicial review, although the appeal process was lengthy, it is, in retrospect, reasonable by comparison to what has occurred since judicial review.    It is easy to blame judicial review, but judicial review is not responsible for the backlog in the largely-accumulated delays in processing appeals. NOVA has three specific recommendations: The first recommendation would require a major statutory change; the second and third recommendations, we do not believe would require a major statutory change, but we do believe it would be significant.    First, NOVA recommends the amending of 7105, which is the statutory provision that concerns the appeal process. We recommend the elimination of both the statement of case and the substantive appeal. These requirements are simply no longer needed. They had merit and reason in the prior-to-judicial-review environment. The elimination of these two currently required processes would cut by significant time period the delays inherent in this process. The requirement for a statement of case and a substantive appeal, in fact, now contribute to the delays, as is verified by the statistics.    Second, if the committee and Congress are not willing to amend 7105 with such a major change, 7105 at least needs to be amended to explicitly require the certification of an appeal and the transfer of that appeal to the Board within 60 days. The chairman mentioned in earlier questioning the observation that the VA has very few, if any, time limits imposed upon them by Congress. This is an implementation, this is a recommendation that will impose a specific timeframe.    The current delays in getting appeals physically from the regional offices to the Board is taking too long because the regional office controls the certification of the appeal. Congress needs to tell the regional offices by statute, in no uncertain terms, that within 60 days of the receipt of the substantive appeal, that the appeal will be certified and it will be transferred to the Board.    Now, one of the potential consequences of this is that currently of the 70,000 appeals that the Board has, only half of them are physically before the Board, because the other half have not been transferred to the Board. This is going to put the burden of the appeal process where it belongs, with the appeal. The agency, by not certifying appeals, by not physically moving those claims to the Board, is contributing to this backlog, again, as the statistics clearly demonstrate.    Third and finally, there are two statutory provisions that deal with remands and use ambiguous and unclear language for the handling of a remand from both court and the Board. And the statute uses the term ``expeditiously handled.'' The fact is, is unless this Congress by statute tells the agency what the expectation is, expeditious treatment is going to remain ambiguous. We recommend a 6-month action report if the remand has not been resolved within that time period. And after that date that written explanations every 6 months be provided for why there has been no resolution.    The removal of the ambiguity and the imposition of specific time frames, we believe, will clearly assist the problems that exist with remands because there is no clarity of Congress' expectation as to what the timeframe is to get a remand resolved. And if you don't tell them, then you have seen what is going to happen. They are simply going to be dealt with as the VA chooses to deal with them, which is not acceptable.    [The prepared statement of Mr. Carpenter appears in the Appendix]</t>
@@ -1069,11 +1015,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1093,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1121,11 +1063,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1145,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1173,11 +1111,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1197,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1225,11 +1159,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1249,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1277,11 +1207,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1301,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1329,11 +1255,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1353,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1381,11 +1303,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1405,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1433,11 +1351,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1457,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1485,11 +1399,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1509,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1537,11 +1447,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1561,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1589,11 +1495,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1613,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1641,11 +1543,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1665,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1693,11 +1591,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1717,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1745,11 +1639,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1769,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1797,11 +1687,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1821,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1847,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1873,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1899,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1925,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1951,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1977,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2003,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2029,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2055,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2081,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2107,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2133,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2159,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2185,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2213,11 +2071,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2237,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
-      </c>
-      <c r="G47" t="s">
-        <v>63</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2263,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2289,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2315,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
         <v>62</v>
-      </c>
-      <c r="G50" t="s">
-        <v>63</v>
-      </c>
-      <c r="H50" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2341,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2367,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" t="s">
-        <v>63</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2393,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2419,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
-      </c>
-      <c r="G54" t="s">
-        <v>63</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2445,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2471,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
-      </c>
-      <c r="G56" t="s">
-        <v>63</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2497,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2523,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>62</v>
-      </c>
-      <c r="G58" t="s">
-        <v>63</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2549,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2575,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2601,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>62</v>
-      </c>
-      <c r="G61" t="s">
-        <v>63</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2627,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2653,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>62</v>
-      </c>
-      <c r="G63" t="s">
-        <v>63</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2679,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2705,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>62</v>
-      </c>
-      <c r="G65" t="s">
-        <v>63</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2731,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2757,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
-      </c>
-      <c r="G67" t="s">
-        <v>63</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2785,11 +2599,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2809,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>86</v>
-      </c>
-      <c r="G69" t="s">
-        <v>87</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2835,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2861,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>86</v>
-      </c>
-      <c r="G71" t="s">
-        <v>87</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2887,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2913,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
+        <v>81</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
         <v>86</v>
-      </c>
-      <c r="G73" t="s">
-        <v>87</v>
-      </c>
-      <c r="H73" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2941,11 +2743,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2965,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>94</v>
-      </c>
-      <c r="G75" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2991,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3017,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>94</v>
-      </c>
-      <c r="G77" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3043,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3069,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>94</v>
-      </c>
-      <c r="G79" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3095,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3121,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>94</v>
-      </c>
-      <c r="G81" t="s">
+        <v>88</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
         <v>95</v>
-      </c>
-      <c r="H81" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3149,11 +2935,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3173,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>104</v>
-      </c>
-      <c r="G83" t="s">
-        <v>105</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3199,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3225,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>104</v>
-      </c>
-      <c r="G85" t="s">
-        <v>105</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3251,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3277,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>104</v>
-      </c>
-      <c r="G87" t="s">
-        <v>105</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3303,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3329,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
+        <v>97</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
         <v>104</v>
-      </c>
-      <c r="G89" t="s">
-        <v>105</v>
-      </c>
-      <c r="H89" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3355,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3381,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>104</v>
-      </c>
-      <c r="G91" t="s">
-        <v>105</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3409,11 +3175,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3433,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>116</v>
-      </c>
-      <c r="G93" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3461,11 +3223,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3485,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>120</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3511,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3537,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s">
-        <v>120</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3563,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3589,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
-        <v>120</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3615,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3641,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>120</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3667,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3693,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s">
-        <v>120</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3721,11 +3463,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3745,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3773,11 +3511,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3797,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3825,11 +3559,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3849,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3877,11 +3607,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3901,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3929,11 +3655,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3953,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3981,11 +3703,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4005,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4033,11 +3751,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4057,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4085,11 +3799,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4109,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4137,11 +3847,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4161,13 +3869,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4189,11 +3895,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4213,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4239,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4265,13 +3965,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4291,13 +3989,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4317,13 +4013,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4343,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4369,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4397,11 +4087,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4421,13 +4109,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>157</v>
-      </c>
-      <c r="G131" t="s">
-        <v>158</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4449,11 +4135,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4473,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>116</v>
-      </c>
-      <c r="G133" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4499,13 +4181,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4525,13 +4205,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>116</v>
-      </c>
-      <c r="G135" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4553,11 +4231,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4577,13 +4253,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s">
-        <v>165</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4605,11 +4279,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4629,13 +4301,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
-      </c>
-      <c r="G139" t="s">
-        <v>168</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4657,11 +4327,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4681,13 +4349,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" t="s">
-        <v>171</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4709,11 +4375,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4733,13 +4397,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s">
-        <v>174</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4761,11 +4423,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4785,13 +4445,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s">
-        <v>177</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4813,11 +4471,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4837,13 +4493,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
-      </c>
-      <c r="G147" t="s">
-        <v>174</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4865,11 +4519,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4889,13 +4541,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
-      </c>
-      <c r="G149" t="s">
-        <v>174</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4917,11 +4567,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4941,13 +4589,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>18</v>
-      </c>
-      <c r="G151" t="s">
-        <v>171</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4969,11 +4615,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4993,13 +4637,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" t="s">
-        <v>168</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5021,11 +4663,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5045,13 +4685,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" t="s">
-        <v>165</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5073,11 +4711,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5097,13 +4733,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
-      </c>
-      <c r="G157" t="s">
-        <v>177</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5125,11 +4759,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>12</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5149,13 +4781,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
-      </c>
-      <c r="G159" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5177,11 +4807,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5201,13 +4829,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>18</v>
-      </c>
-      <c r="G161" t="s">
-        <v>165</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5229,11 +4855,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5253,13 +4877,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>18</v>
-      </c>
-      <c r="G163" t="s">
-        <v>168</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5281,11 +4903,9 @@
       <c r="F164" t="s">
         <v>11</v>
       </c>
-      <c r="G164" t="s">
-        <v>12</v>
-      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5305,13 +4925,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
-      </c>
-      <c r="G165" t="s">
-        <v>171</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5333,11 +4951,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5357,13 +4973,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" t="s">
-        <v>174</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5385,11 +4999,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5409,13 +5021,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>18</v>
-      </c>
-      <c r="G169" t="s">
-        <v>177</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5437,11 +5047,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5461,13 +5069,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>14</v>
-      </c>
-      <c r="G171" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5489,11 +5095,9 @@
       <c r="F172" t="s">
         <v>11</v>
       </c>
-      <c r="G172" t="s">
-        <v>12</v>
-      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5513,13 +5117,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" t="s">
-        <v>204</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5541,11 +5143,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>12</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5565,13 +5165,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>18</v>
-      </c>
-      <c r="G175" t="s">
-        <v>207</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5593,11 +5191,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>12</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5617,13 +5213,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
-      </c>
-      <c r="G177" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5645,11 +5239,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>12</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5669,13 +5261,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
-      </c>
-      <c r="G179" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5697,11 +5287,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>12</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5721,13 +5309,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>18</v>
-      </c>
-      <c r="G181" t="s">
-        <v>204</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5749,11 +5335,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>12</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5773,13 +5357,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" t="s">
-        <v>207</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5801,11 +5383,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>12</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5825,13 +5405,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>18</v>
-      </c>
-      <c r="G185" t="s">
-        <v>207</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5853,11 +5431,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97993.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97993.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="228">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412630</t>
   </si>
   <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Abraham. Good morning, everyone. Thanks for being here and thanks for your patience.    This oversight hearing of the Subcommittee on Disability Assistance and Memorial Affairs will now come to order. I first want to take a moment to welcome the subcommittee members, those who are new to Congress, new to the committee, and also those who are returning to this committee.    It is a true honor to sit as your chairman of this subcommittee and I am also pleased to welcome my colleague, sitting ranking member, Ms. Dina Titus.    By way of short introduction, I am a licensed physician, A military veteran, pilot, farmer, former veterinarian, a husband, and proud father, and proud grandfather now. So I am so pleased to be here and be a representative of the Louisiana Fifth district.    I know that the Veterans' Affairs Committee has been vigilant in its oversight of the Department of Veterans Affairs and has been recognized for its ability to proceed in a largely bipartisan and reasonable manner to benefit our military veterans and certainly their families.    In recent years, terribly grey matters have been productively addressed, and I look forward to continuing that tradition with Ms. Titus and members of the subcommittee on issues that are critically important to our Nation and certainly to our veterans.    To that end, we are here today at the first DAMA subcommittee oversight hearing committee of the 114th Congress to examine the appeals process for veterans' disability claims within the Department. We will focus upon appeals, remands, the rate of remands and the lengthy delays that plague the system.    I am aware that the Department chose to prioritize certain initial claims in recent years, but I must say that when veterans in my District shared that they wait 6, 8 and even 10 years and more to resolve a meritorious appeal of service-connected disability claim, I find that more than just alarming, and certainly unacceptable.    I imagine that both members of the dais and witnesses at the table will agree with that assessment. These claims for service connected disability benefits need to be adjudicated and explained correctly the first time. And when the appellate review is needed, that process must be thorough, swift and very fair.    This issue cannot be minimized or ignored as the VBA has consistently reportedly increased figures on the number of appealed claims, which currently sits near 290,000. The Board of Veterans' Appeals reports an inventory of approximately 60,000 appeals and project explosive increases in coming years.    That means that over 350,000 appeals are currently stockpiled. Some have bounced back and forth in the process for again, well over a decade. And each stage of the appellate system constitute delays, and multiple years, it is not weeks or months, it is years.    So despite the existing statutory requirements, we now know that it the appeal claims are often placed on the back of the burner in favor of VA deciding initial claims as the VA reports that the notices of disagreement period can offer sometimes over 400 days.    The average length of time in the next step of the appeals process between the filing of the substantial appeal and the issuance of a board decision is 960 days.    By the VA's reported figures, nearly half of the BVA decisions result in remand, which often extend the veterans delay by additional years. Unfortunately, the delay alone is not the sole problem facing the veterans in the appellate system.    I understand just 2 months ago, the Court of Appeals for veterans' claims held the Secretary of Veterans Affairs in civil contempt, citing the Department's gross negligence in ignoring any veterans who repeatedly raised concern on an appeal that had been remanded to the Department. The court noted that the veterans were frustrated because the VA seemingly acts with little urgency on remanded claims.    As to this particular case, the court noted that the VA's inactions, ``Conjured a vision of a drowning man, watched by a lifeguard, in a nearby boat, equipped with life preservers and rescue ropes, who decides to do nothing, even though the drowning man is blowing a whistle and firing flares to call attention to his plight.'' That is pretty strong language, but ladies and gentlemen, we have real problems within the system.    I anticipate that our panelists this morning will provide helpful information on their respective roles as well as challenges to the existing process. From the Veterans Administration, including also the Appeals Management Center, and Board of Veterans' Appeals, veterans service organizations and attorney advocates, I thank you all for coming today and I would like to briefly welcome our witnesses.    On the first panel we have Ms. Beth McCoy, Deputy Under Secretary of Field Operations. Thank you for being here on behalf of the Veterans Benefits Administration who is accompanied by Mr. Ronald Burke, Director of the Appeals Management Center and the National Capital Region's Benefits Office. Also on the panel is Ms. Laura Eskenazi, the executive in charge and vice chairman of the Board of Veterans' Appeals.    And after we conclude with panel one, we will see seat a second panel consisting of Mr. Gerald Manar, Deputy Director of National Veterans Service, Veterans of Foreign Affairs; Mr. Zachary Hearn, Deputy Director for Claims, Veterans Affairs and Rehabilitation Division within The American Legion; Ms. Diane Boyd Rauber, Associate General Counsel for Appeals with Paralyzed Veterans of America. Mr. Paul Varela, Assistant National Legislative Director of Disabled American Veterans; and Mr. James Vale, Director of the Veterans Benefit Program of Vietnam Veterans of America.    Then panel 3 will include Mr. Barton Stitchman, Joint Executive Director of the National Veterans Legal Services Program; Mr. Kenneth Carpenter, founding member of the National Organization of Veterans Advocates.    With those introductions compleat, I also thank the member who is not on this committee but who has expressed an interest in today's hearing's topic, I would like to ask unanimous consent that Representative O'Rourke be allowed to participate in today's hearing.    Hearing no objection, so ordered.    Thank you all for being with us again today, and I now yield to our ranking member for her opening statement.    [The prepared statement of Chairman Ralph Abraham appears in the Appendix]</t>
   </si>
   <si>
     <t>412318</t>
   </si>
   <si>
+    <t>Titus</t>
+  </si>
+  <si>
+    <t>Dina</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Titus. Thank you, Mr. Chairman. I want to congratulate you on your recent election to represent Louisiana's Fifth Congressional District, and also on your appointment to the chair this very important committee.    I was fortunate to have a very productive relationship with the former chairman, Mr. Runyan. And I look forward to continuing this committee's tradition of working in a bipartisan fashion to be sure that we provide the benefits that all our veterans deserve.    I am excited to be the ranking member of this subcommittee, and I look forward to the work we have outlined and are going to be undertaking in this Congress.    As many of you in this room know, the problems with the appeals process is a recurring topic in this subcommittee. Since joining the subcommittee 2 years ago, I have been concerned about the looming backlog of appeals at the VA. Almost 2 years ago, in June of 2013, our subcommittee met, and I raised the concerns that we are trading a claims backlog for an appeals backlog. Trading the devil for the witch, so to speak. As we clean up the claims, are we going then to create a problem with appeals?    My statement then is equally applicable today. I warned at that time of an impending appeals tsunami and the need to have a plan to address the anticipated growth in the number of appeals.    While the VA and the VBA have increased their output, all the metrics continue to show that the problem is growing. And veterans in Nevada and across the country are waiting far too long for a VA decision.    As you heard the chairman, who gave some pretty compelling statistics, it is just taking too long. Nationally the average length of time to receive a decision from the VBA in 2013 was 1,255 days. That is nearly, 3\\1/2\\ years, 3\\1/2\\ years. That is way too long.    In Nevada, there are close to 1,400 appeals waiting to be adjudicated. And when a veteran comes to my office to say what has happened to my appeal, it is not very encouraging to go tell him, we don't know and it is going to take 3 years before we find out. That is just not acceptable.    I am concerned that as we address this problem, we haven't been provided with a detailed plan of how we are going to address it in an overall fashion. We are once again receiving piecemeal recommendations instead of a comprehensive plan. I think we need to take action so we don't get too far behind and we are not having this exact same hearing 2 years from now.    In Congress here, we need to work collaboratively with the VA and with the VSOs to come up with that plan and create a system that will deal with these appeals in a timely fashion. But we need also to ensure that while we are doing that we are giving them a full and careful evaluation, we are not just rushing through the process.    In the 113th Congress, I highlighted a need to form a task force that would include the key stakeholders, would meet, have a hands-on approach, and come up with such a plan they could present to us. I appreciated at that time Chairman Miller's support for the idea and it eventually did pass the House.    Today, I plan to reintroduce that same legislation and I would welcome members of this committee to join me as cosponsors.    It is unfortunate that we have lost two years during this time when we could have had a comprehensive plan completed, and then we would be ready to meet the challenge as opposed to talking again about what we might need to do.    Now, I understand that the VA has conducted a study to better understand the appeals process from the veteran's standpoint and I look forward to having you all share that with me and the members of this committee and the chairman especially.    To me, the situation is really clear too many veterans have waited too long to have their appeals evaluated. It is up to us to try to work with the VA to improve that system and improve it fast. We need a better plan and I think that commission will help us get there. We need ideas from the experts so we can get to work.    Another idea our subcommittee should explore is one that has been proposed by Mr. O'Rourke and Mr. Cook. And I am glad Mr. O'Rourke is here to create a fully developed appeal, similar to the fully developed claims initiative that has been so popular, so I hope we will hear more about that.    Again, thank you, Mr. Chairman. I look forward to working with you and I am glad we are starting off early on this issue.    [The prepared statement of Ranking Member Dina Titus appears in the Appendix]</t>
   </si>
   <si>
@@ -67,12 +82,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>McCoy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. McCoy. Mr. Chairman, ranking member, members of the subcommittee. Thank you for the opportunity to discuss VA's commitment to reducing the pending inventory of appeals and increasing efficiency within the process.    The VA has made significant progress, 60 percent reduction in 22 months, on its goal to eliminate its disability claims backlog, which is any rating claim that is pending more than 125 days, and improve the quality of its decisions on claims.    VBA set a record production in fiscal year 2014 over 1.3 million claims completed without sacrificing quality, which at the claim level is at 91 percent now, compared to 83 percent in 2011. Looking at quality down at the medical issue level, the accuracy is at 96 percent.    Amidst VA's record-breaking production we remain committed to making the appellate process more timely and efficient for our Nation's veterans and their families.    With this increased rating production, VA's volume of appeals has grown proportionately. Historically, the rate of appeal has remained steady over about the last 20 years, regardless of production or quality. VA's historical administrative appeal rate has remained constant at about 10 to 11 percent of all claimants filing a notice of disagreement or what we call an NOD. And about 4 to 5 percent then completing an appeal to the Board of Veterans' Appeals.    These statistics indicate that veterans tend to exercise their right to appeal at the prevailing rate regardless of the nature of VBA's initial decision. This data also reflects there is no correlation between accuracy of the initial claims decisions and the rates of appeal.    In fiscal year 2014, VBA received 145,000 NODs, which equates to about 11 percent of the claims decided by VBA that year.    The majority of the appellate process is conducted at VBA's regional offices before the case is transferred to the Board for a final agency decision. Each regional office is required to review the appellant's claim file, many of them are multi-volume files, and obtain or make substantial effort to obtain all the evidence that is relevant to the case.    Due to the open record for appeals, appellants can submit new evidence or make new arguments at any time resulting in many cycles of additional development.    During the review, the RO will also grant additional benefits as warranted along the way, allowing veterans to receive compensation benefits more quickly.    It should be noted that approximately 72 percent of appeals are from veterans who are already in receipt of compensation benefits. VBA also oversees the Appeals Management Center, or the AMC, in Washington, DC, which was established in 2003. It is a centralized resource for processing of appeals remanded by the Board for additional development, about two-thirds of which are due to additional evidence received after they have been certified to the Board.    VBA allocates significant resources to appeals in its regional offices, about 950 full-time employees right now, and at the AMC, about 191 full-time employees.    Members of the appeals teams in the regional offices and AMC are dedicated to working appeals only during normal business hours, and have been completing disability compensation claims during overtime hours.    In fiscal year 2014, VBA took almost 182,000 appeal actions, an increase of 13.4 percent from the prior year. VBA is also redesigning the manner in which employees are evaluated. We have launched a performance standard work group comprised of our leaders, union leaders and employees to do the work. To fundamentally change performance standards of claims processors from task-oriented points to a system that is one focused on veteran outcomes. The effort also includes input from others outside of VA on how performance is measured in other agencies and in the private sector.    Just as we have transformed the rating claims process, we are looking also to transform the appeal process, using employee training, tools, streamlining processes and implementing modern technology. It is not something we can do ourselves, we count on working with Congress, the veterans service organizations and other stakeholders to explore long-term legislative solutions that provide veterans the timely and meaningfully right of appeal that they deserve.    This concludes my remarks. I will be happy to address any questions you have.    [The prepared statement of Ms. McCoy appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you.    Ms. Eskenazi, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Eskenazi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Eskenazi. Thank you. Good morning, Chairman Abraham, Ranking Member Titus and subcommittee members. My name is Laura Eskenazi. I am the vice chairman and executive in charge of the Board of Veterans' Appeals. As you noted with me from the Veterans' Benefits Administration is Beth McCoy, Deputy Under Secretary for Field Operations, and Ronald Burke, Director of the Appeals Management Center.    Thank you for inviting us here todays to discuss VA's commitment to providing veterans with timely and quality appeals decisions. We are here today representing the dedicated hardworking employees at VA, many of whom are veterans or family members of veterans.    Working closely with Secretary McDonald, all of us are deeply committed to increasing efficiencies that we may provide our Nation's veterans with the outstanding service they deserve.    The VA appeals process is very different from any other appeals process. It is not one in which a single appeals office in VA assesses whether to affirm or reverse a prior decision. The responsibility for processing appeals in VA is shared between the Veterans Benefits Administration and the Board of Veterans' Appeals, which is why you see both offices represented at the table today.    The VA appeals process is complex. It has multiple stages, it is non-linear. The process is heavily set in law with a continuous open record that welcomes submission of new evidence and new arguments from the veteran at any time.    As a result of this open record framework, the matter on appeal often no longer resembles the initial claim. Moreover, the open record often requires VBA to cycle back to an earlier step in the process as opposed to advancing to a final Board decision. This is required to comply with the legal requirements set forth in statute and binding case law to provide the veteran with the right to one review on appeal to the Secretary.    Throughout an appeal, the VA has the duty to assist the veteran in establishing his or her appeal by ensuring that the record of evidence is complete, and current for purposes of adjudication.    Given that nearly all appeals involved medical disability determinations, and that medical conditions evolve, appeals are frequently sent back or remanded to gather new evidence, and issue a new decision on that new evidence, which the veteran can then appeal back to the Board.    The landscape of the veterans appeals process changed in 1988 with the establishment of the United States Court of Appeals for veterans claims. As a result of the legal complexity that has developed with court review, it has become increasingly challenging for VA to complete an appeal by reaching a final decision. Simply put, the current design of the appeals process is incompatible with timely final appeals decisions. We have seen the remand rate from the Board rise steadily over the years since judicial review from a low of 23 percent in fiscal year 1990, to over 45 percent in the last 3 fiscal years.    During the past year, VA has actively participated in collaborative discussions with the veterans service organizations on ideas for reform. One concept that gained traction was to provide veterans with a choice of a different, more streamline avenue of appeal. This voluntary choice is the core principle of what has been referred to as the fully developed appeal, or FDA.    While the FDA would not be a silver bullet, it would offer a more efficient finality-driven approach, and perhaps serve as a model for other streamlining ideas.    In conclusion, veterans are waiting too long for final appeals decisions under the current legal framework. We are very thankful for the work by Congress, this committee, and other stakeholders, including the veterans service organizations, to explore long-term solutions to provide veterans with the timely appeals process they deserve.    Thank you. I would be happy to answer any questions from the committee.    [The prepared statement of Ms. Eskenazi appears in the Appendix]</t>
   </si>
   <si>
@@ -193,6 +214,12 @@
     <t>412191</t>
   </si>
   <si>
+    <t>Lamborn</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman, Chairman Abraham and Ranking Member Titus, congratulations to both of you for your appointments, I look forward to working with you and helping you in this important subcommittee.</t>
   </si>
   <si>
@@ -262,6 +289,12 @@
     <t>412519</t>
   </si>
   <si>
+    <t>Ruiz</t>
+  </si>
+  <si>
+    <t>Raul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ruiz. Thank you very much, Mr. Chairman, and ranking member for holding this meeting, this hearing. This is very important to the veterans throughout our districts and throughout our country.    I am proud to represent the eastern portion of the Riverside County which has the ninth largest veteran population in the country. More than 50,000 veterans reside in my District alone. I am honored to once again represent them on this subcommittee where we will work together and shine a light on problems in the VA and provide veterans the benefits they have earned.    Today we are focused on ensuring that veterans have the chance to appeal decisions on their benefit claims, which for many will mean the difference between access to benefits and even life and death.    As today's panelists have testified, the number of appeals pending already approaches 3,000,000 and is only expected to grow in coming years. As Representative Titus mentioned, because we improved the claims backlog with the sheer number 10 percent naturally will be appealed. The appeals claims will go up as well. So we can count on and need to be prepared to remedy that as soon as possible.    We have made a commitment to caring for our veterans, and we owe them an answer on appeals for that care in a timely and accurate fashion. Especially when more than a quarter of veteran appeals are successful, when a decision is finally issued. So that's one out of four get those decisions reversed, and get the benefit, and the claims, and the help that they need.    That is why I am reintroducing the Veterans Access to Speedy Review Act. My bill addresses the unaccessible appeals bills backlog by increasing the use of video teleconferencing, as you mentioned, during an appeals hearing as a substitute for requiring the veterans to attend in person. This is evidence-based policy and I will give some evidence behind how that works.    My legislation will guarantee veterans the option of video teleconferencing, guarantee them the option of video teleconferencing for hearings before the Board of Veteran Appeals to allow a hearing at the earliest possible date. In 2013, on average, video conference hearings were held 110 days sooner than in-person hearings. It works.    Should any veteran prefer an in-person hearing, my bill ensures that person will have the final say on the manner of hearing for their appeal. This simple improvement will increase flexibility to relieve the physical and financial burdens on veterans who must travel to appear at appeal hearings in person. It will also streamline the review process to decrease wait times and save taxpayers money. The VA testified that this bill will make processing claims more efficient and eliminate substantial travel costs to our veterans and the VA system.    This bill is a commonsense, cost neutral solution which is why it passed the full Veterans Affairs Committee by a bipartisan voice vote last Congress. So I urge my fellow subcommittee members to support this bill and start bringing veterans their earned benefits as soon as possible.    So to the panelists, and to my colleagues, with that in mind would you support the increased use of veterans requested teleconferencing by the Board of Veterans' Appeals? First, to my colleagues, if you do so, would you kindly consider being original cosponsors before I reintroduce this bill? To my Republican colleagues as well. And now to the panelists, can you describe how this has actually produced the results and how veterans have utilized this veteran processing tool and option?</t>
   </si>
   <si>
@@ -283,6 +316,12 @@
     <t>412651</t>
   </si>
   <si>
+    <t>Costello</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Costello. Thank you. My question is for Ms. Eskenazi, and ultimately, the question is going to be how and what stakeholder support do we need in order to transform the appeals process with legislative reform. I thought that you laid out very well for me what the Veterans Traditional Review Act in 1988 did to complicate--it is not to suggest that we shouldn't have that law--but to complicate the synchronizing that with the way you go about developing a claim and handling it judicially. All within the context of have an open record. I can appreciate the need for an open record. We are dealing with veterans, we are not dealing with a land use hearing or a criminal matter where you have your day in court, if you didn't make your argument, you are done.    Here I think, particularly with new evidence possibly coming about or a claim not being fully ripe when the claim is made, but still the need to get that claim in the pipeline because you need the care or the benefit.    I can also appreciate from the remand perspective that two-thirds of the reason for a remand is because of additional evidence or due to a change in circumstances after the claim arose, so I can understand that. Clearly, though, there is a problem with the remand process here and how that keeps claims in the system for a very, very long time.    It seems to me that there needs to be a remand reform element to how we address this legislatively. It needs to be fair to veterans. It also needs to enable you to streamline this process so that when a veteran is submitting a claim, either as much of that claim comes about or every alternative theory or justification in an argument that can be made is made at that time. But share with me, as you talk about clearly being a stakeholder in this from a legislative reform perspective, what we can do to help reduce the number of remands, either on the way in the door by making the claims easier to process, or if more evidence is needed and that is why it is being remanded, isn't there a way to maybe short circuit the time lag on the remand in order to get that evidence back in the door? What are your thoughts? How do we make it a more streamline process?</t>
   </si>
   <si>
@@ -310,6 +349,12 @@
     <t>412516</t>
   </si>
   <si>
+    <t>Brownley</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Brownley. Thank you, Mr. Chairman.    I wanted to ask about the money morning workload report, which is helpful with regards to our oversight and tracking of the current claims. And I am wondering if there could be a creation similarly for the appeals process.    I understand that it is different, the open record framework that you have been speaking about, but I think it is important to have that kind of transparency and our ability to be able to oversee and track that we are improving and improving--excuse me, the appeals process as a tool.</t>
   </si>
   <si>
@@ -343,12 +388,21 @@
     <t>412629</t>
   </si>
   <si>
+    <t>Bost</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bost. I will yield.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Abraham. Okay.    Mr. O'Rourke.</t>
   </si>
   <si>
+    <t>O'Rourke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Mr. Chairman, Ranking Member Titus, thank you for allowing me to join you today in the hearing.    Ms. Eskenazi, I didn't fully catch what you said in your opening statement about a fully developed appeal. It seemed to diverge from your written testimony. Could you repeat that or expand upon what you said?</t>
   </si>
   <si>
@@ -460,6 +514,12 @@
     <t>412646</t>
   </si>
   <si>
+    <t>Zeldin</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Zeldin. Mr. Abraham, I look forward to serving with you and Ms. Titus.    It is an important subcommittee. I represent the 1st Congressional District of New York. Suffolk County has the highest veterans population of any county in New York State, the second-highest population of any county in the country. We are served by the VA in Northport.    I was serving in the State Senate previously, and we received a lot of outreach from people who were so frustrated with the backlog of the Federal system. They were reaching out to their State Senator, their councilmen, their county legislator, whoever could possibly help them. I am honored to serve on this committee and this subcommittee, and I appreciate you being here and anything that you can possibly do to help reduce that backlog. My office, we are looking to be partners with you with the challenges that you face.    And thanks again for yielding.</t>
   </si>
   <si>
@@ -478,30 +538,45 @@
     <t xml:space="preserve">    Mr. Abraham. Ladies and gentlemen, thank you for being here. We appreciate your presence. You are now excused, and we will pause just for a minute while we seat the second committee. Thank you.    On this second committee, we are going to get as much of it done as we can before we have to recess for voting, so we are going to move along very efficiently.    Welcome, everyone. Mr. Manar, you are recognized to present the testimony of Veterans of Foreign Wars for five minutes.</t>
   </si>
   <si>
+    <t>Manar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Manar. Thank you.    Chairman Abraham, Ranking Member Titus, and members of the subcommittee, thank you for the opportunity to present to you the views of the 1.9 million members of the Veterans of Foreign Wars of the United States and its auxiliaries on this important topic.    I would like to talk about some of the issues facing VA and the Board of Veterans Appeals, as well as suggestions for addressing some of those problems. The VA says that it made over 1.3 million decisions in compensation and pension disability claims in 2014, which is over 150,000 more decisions than ever before. At a 10 percent appeal rate, VBA would be expected to receive approximately 130,000 notices of disagreement based on those decisions, roughly 13,000 more than in the previous year. Sadly, those appeals will be in line behind the nearly 300,000 appeals VA currently has. These appeals affect real veterans and their families.    Mr. Chairman, there are over 4,900 appeals pending in the New Orleans regional office. Nevada has 1,400 appeals pending, while California has 16,500 appeals awaiting action in their three regional offices. As bad as these numbers are, they pale in comparison to the over 25,000 appeals pending in Florida. If past is prologue, those appeals may wait over three years before VA transfers them to the Board of Veterans Appeals.    There are several reasons why the appeals workload has grown from 130,000 in 2004 to about 300,000 today. With the advent of judicial review in 1988, a significant number of decisions by the courts have forced the VA to more closely follow the letter of the law and regulations. On several occasions VA has been forced to readjudicate thousands of decisions, increasing work in both regional offices and the Board of Veterans Appeals.    Finally, many court decisions required veteran law judges to write clearer, more comprehensive decisions for appellants. These are all good things. However, much work had to be redone, and decisions today may take somewhat longer to write, reducing production at the Board of Veterans Appeals.    With the creation of the Secretary's twin goals of no claim older than 125 days and quality at a 98 percent level, VBA has focused with military-style precision on reducing the disability claim backlog. Appeals team personnel, including decision review officers, were frequently directed to process other work. As a consequence, appeals grew from 255,000 at the beginning of 2014 to close to 300,000 today.    It is time for VA to declare victory and start processing the rest of its work. What actions can be taken to stop the increase and start driving down the appeals workload? There are no magic bullets to solving this problem. Solutions must be crafted with this injunction in mind, that any solution that helps VA process more appeals cannot be done at the expense of veterans and the rights they currently enjoy. That is what makes this really hard work, finding solutions that allow VA to process appeals faster without hurting the due process rights of veterans and their families.    We make five specific recommendations in our written testimony. These recommendations include an increase in BVA and VBA staffing, release of the Statement of the Case within 30 days of receipt of a Notice of Disagreement where there is no additional evidence submitted, eliminate the new material evidence requirement to reopen a claim, and reenergize the decision review officer position to make it more effective in reducing appeals.    Finally, building on the ideas of a committee member, service organizations and representatives from the VA worked together last year to explore and expand on a fully developed appeal initiative. The idea is to fast track certain appeals to the BVA following a waiver of existing rights by claimants. While we support the FDA concept, there are hurdles which need to be overcome before the idea is ready for testing.    The most significant problem involves the waiver of rights by claimants. In order to be effective, any waiver must be based on a clear understanding of the decision made by VA. As we describe in our written testimony, it is our belief that the notices provided by VA to many claimants simply do not give them the information they need to understand the reasons for the decision. Many notice letters fail to detail specific evidence used in making the decision.    Further, many decisions offer only conclusions as a substitute for analysis of the evidence and reasons and basis for the decision. As a consequence, claimants don't have enough information to decide whether the decision was most likely correct, what the evidence showed, and what evidence is needed to obtain a different result. Without this information, many claimants do not have enough information to knowingly waive the procedural rights they have under the current appeals process.    In conclusion, we applaud the VA and members of this committee and the VSO community for working together to find solutions to reduce the appeals backlog. However, the key to making any FDA initiative work are two factors. The claimant must have access to all the evidence considered by VA in making its decision, and the claimant must be fully informed of the reasons and basis for each decision made by the VA.    Mr. Chairman, this concludes my statement. I will be happy to answer any questions you or the committee members may have.    [The prepared statement of Mr. Manar appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you. Mr. Hearn, you have five minutes.</t>
   </si>
   <si>
+    <t>Hearn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hearn. Thank you. 1,461 days, this is the number of days in a standard four-year armed services enlistment. 1,937 days, this is the average number of days a veteran will wait to have a claim adjudicated from initial filing through the various stages of appeals. It is staggering that a veteran may have to wait longer to have a claim properly adjudicated than they may have served through their service contract.    Good afternoon, Chairman Abraham, Ranking Member Titus, and members of the committee. On behalf of National Commander Helm and the 2.4 million members that comprise the Nation's largest wartime veterans' service organization, the American Legion is eager to share our research and the firsthand experience regarding the appeals process.    As you know from my written testimony, the American Legion has more than 3,000 accredited service officers assisting more than 700,000 veterans nationwide. Just over a year ago the American Legion testified regarding VA's accuracy in adjudication based upon the American Legion's Regional Office Action Review Program and challenged VA's accuracy statistics.    Understanding the importance of accuracy is critical to fixing the appeals process. When VA fails to accurately adjudicate claims from the beginning, veterans are forced into the far lengthier and more complicated appeals process. Completing claims accurately the first time is the very simple answer to eliminating large volumes of claims in the appeals system.    VA identifies a backlog claim as a claim that has not been adjudicated within 125 days. VA does not consider appealed claims as backlogged. They merely refer to them as an inventory. But let's be clear. For the nearly 290,000 veterans awaiting adjudication of their appeals, a figure larger than the population of Cincinnati, they consider their claims backlogged.    Nearly 75 percent of claims presented at the Board of Veterans Appeals are found to either have been inappropriately denied at the regional office or inadequately developed and prematurely denied. VA can correct this by starting at the regional office. Too often claims remanded by BVA are remanded for improper development and for failing to follow their legally mandated duty to assist. Often American Legion national appeals representatives will note VA did not offer consideration regarding if a condition manifested secondary or was aggravated by a previously service-connected condition.    If VA examiners were compelled to consider if conditions manifested in ways other than directly related to service, many remands for examinations would be eliminated. The American Legion's ROAR trips have repeatedly noted this in our written reports. While VA asserts it does not place a higher priority on the amount of claims adjudicated, its current work credit structure does not address accuracy in its metric, which rewards speed over quality.    In the past year, the American Legion established Veteran Crisis Command Centers at various locations throughout the country resulting in the awarding of nearly $1 million in retroactive benefits. These events allowed veterans to gain instant personalized access to Legion and VA personnel. In nearly every location, we came across veterans with claims that had errors in their adjudication.    Fortunately through the joint efforts of the American Legion and VA, we are able to correct these errors. However, for these veterans the years of suffering and the impact it had on their employment and their families cannot be restored simply through the disbursement of a retroactive payment.    Today if a claim is remanded by a BVA judge, the instructions are forwarded to the Appeals Management Center to have requisite development conducted. These remands, or returned claims, come with clear and distinct instructions from the judge, yet the American Legion consistently sees cases remanded multiple times despite having clear instructions provided by that BVA judge. This is what is known as the hamster wheel of remands where a veteran remains in adjudication purgatory while waiting for VA to conduct proper development and finally render a decision.    The most common questions we get from veterans are why does it take so long? Why can't VA get it right the first time? Or are they just waiting for me to die? Often you can hear the pain in their voice. As an advocate, it kills me to constantly hear their frustration and desperation. This is what veterans face, an adjudication process that rewards the quick and not the accurate, an appellate process that repeatedly notes errors in development, and adjudication that may cause years of hardship for our Nation's veterans.    During a testimony last summer, former Ranking Member Michaud stated, ``There should not be a victory lap taken by VA if they eliminate the backlog of claims meanwhile having an abundance of appeals in inventory.'' The American Legion wholeheartedly agrees. The greatest impact on the appeals process would be eliminating the need to appeal in the first place. VA needs to eliminate the current work credit structure that places a greater emphasis on quantity of claimed adjudicated rather than the quality of those adjudications.    An increased emphasis on training and the manner that the training is delivered to its adjudicators needs to happen now. As VA works to eliminate the backlog, we need to ensure that they are not moved from a backlog claim to a backlogged appeal. Most importantly, we need to ensure that our veterans finally begin receiving the benefits and services they have earned through their dedicated service.    Again, on behalf of our National Commander Michael Helm and the 2.4 million members of the American Legion, we thank the committee for inviting us to speak today, and I will be happy to answer any questions the committee may have.    [The prepared statement of Mr. Hearn appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you, Mr. Hearn. Ms. Rauber.</t>
   </si>
   <si>
+    <t>Rauber</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Rauber. Chairman Abraham, Ranking Member Titus, and members of the subcommittee, Paralyzed Veterans of America would like to thank you for the opportunity to offer testimony regarding the appeals process. There are many problems contributing to delayed appeals which has become more apparent with VA's focus on reducing the claims backlog. A major cause of delay is the high number of remanded appeals.    Approximately 45 percent of appeals are remanded often due to an order for a new VA medical examination. This action occurs even when favorable private medical evidence or opinions from VA treating physicians are in the record.    In PVA cases the record often includes extensive medical information from a Spinal Cord Injury Center physician who has specialized expertise and an intimate knowledge of the veteran's medical condition. Too often for PVA members, the opinion of a C &amp; P examiner who reviews the file and sees the veteran once is weighed more heavily than the opinions of the Spinal Cord Injury Center experts.    When unnecessary resources are used to seek medical information already in VA's possession, not only is the veteran's individual appeal delayed, the overall process slows. At times these requests are also in conflict with the benefit-of-the-doubt doctrine which requires the VA and the Board to grant a claim when there is a proximate balance of positive and negative evidence.    When an appeal is remanded, it typically returns to VBA jurisdiction through the Appeals Management Center. It is at this step where appeals tend to stall and be subject to multiple remands because the AMC or regional office fails to ensure the Board's specific orders are fulfilled. For example, the Board may order a new examination by a medical specialist which is instead completed by a nurse practitioner, or the Board poses specific questions for response from the examiner which are not fully completed, or the VA fails to follow VHA procedures for scheduling the examination, resulting in the veteran missing it. These are just a few examples, but when the AMC fails to ensure compliance with the Board's orders, the appeal must be remanded again, adding significant delay before the veteran receives a final board decision.    Remanded appeals can take a year or more to complete. If 45 of every 100 decisions are remanded, it stands to reason that the number of appeals will only increase as each remanded appeal that is not granted in full must return to the Board for further review while original appeals continue to be certified to the Board. New original appeals linger while older remanded appeals with earlier docket dates are decided.    A greater reliance on private medical evidence or VA treating medical evidence and more consistent application of the benefit-of-the-doubt doctrine could reduce remands. A review of examination scheduling procedures would also be helpful, as would a review of AMC training, procedures, quality review, and accountability, to ensure proper handling of remands.    Furthermore, when the Board determines a veteran is entitled to advancement on the docket due to age, financial hardship, or serious illness, that designation should be honored and enforced on remand.    There are other ideas to reduce delay. PVA has partnered with other VSOs as well as VBA and Board Administration in a working group on how an expedited appeals pilot program might allow certain appeals to be decided in a more timely fashion.    It is the intent of PVA with VSO partners to support the introduction of bipartisan legislation to implement such a pilot program. In addition, PVA continues to support the strengthening of the DRO program and requiring DROs to work solely on appeals where their expertise can be of best use.    As has been discussed by several of the other panel members, an unexpected challenge has occurred in the area of technological improvement. PVA supported VA's adoption of VBMS. Unfortunately VBMS lacks appeals-friendly features to allow it to be efficient. We are pleased that the Board's administration has included VSOs in meetings to collaborate on ideas to improve VBMS specifically for appeals work. However, adequate funds must be ensured so the Board can accelerate VBMS improvements and continue to engages VSOs in that process.    Finally, Mr. Chairman, when a claimant files a meritless appeal or compels a representative to do so, that appeal clogs the system and draws resources away from legitimate appeals. Since 2012, PVA has required clients to sign a notice of limitation when they execute their power of attorney to acknowledge we will not appeal every adverse decision and reserve the right to refuse to advance any frivolous appeal in keeping with VA regulations.    To help a veteran make the most informed decision regarding the merits of an appeal, the VA should provide improved case-specific notice of the initial rating decision.    Mr. Chairman, we would like to thank you once again for allowing us to address this truly important issue, and we look forward to working with you in the 114th Congress.    I would be pleased to take questions.    [The prepared statement of Ms. Rauber appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you, Ms. Rauber. We are going to take a recess and go vote. We will be right back. Mr. Varela, you can continue for 5 minutes, please.</t>
   </si>
   <si>
+    <t>Varela</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Varela. Good afternoon, Chairman Abraham, Ranking Member Titus, and members of this subcommittee. DAV appreciates being invited to testify today to discuss the challenges facing the 360,000-plus veterans, dependents, and survivors with pending appeals. Over 95 percent of these pending appeals pertain to disability compensation benefits. Our written testimony today provides the subcommittee with a number of recommendations; however, my oral statement will focus on just a few.    First, VBA and the Board require adequate resources to process appeals. While, this is not the only solution, it is certainly part of it. It is estimated that VBA's total appeals inventory is roughly 360,000, of which roughly 65,000 are within the jurisdiction of the Board, and roughly 32,000 of these appeals are within the Board's physical possession. It is no understatement to say the appeals inventory is too large and this number continues to climb every day.    The fact that appeals keep rising suggests a mismatch in manpower needed to process the appeals at both the Board and regional office level. Also contributing to the growth of appeals has been VBA's reliance on the appellate workforce to process claims for disability compensation. VBA also relies on the appellate workforce in order to meet their 2015 goals of no claim pending over 125 days with 98 percent accuracy. This practice diverts personnel to focus on claims processing. VBA utilizes all available resources to achieve their 2015 goal, which contributed to a drastic increase in pending appeals.    Second, VBA's Decision Review Officer Program must be strengthened as it is one of the most critical and indispensable procedures available to appellants within the current appeals processing model. While an appellant elects the DRO option, it affords the option to resolve issues locally at the regional office level. For those appellants represented by DAV, our national service officers have direct access to decision review officers and often work with them to identify potential solutions to resolve appeals.    Given the critical nature of the DRO process, it must be strengthened and resourced adequately. Furthermore, the appellate workforce must focus their efforts on the appeal inventory and not repurpose to work claim-related initiatives. Unfortunately, VBA traded one backlog for another due to their all-hands-on-deck approach to realize the 2015 goals.    Third, Congress, VA, and stakeholders must look at innovative reforms to improve the appeals process. One innovation has become known as the fully-developed appeals pilot program. There is no one solution to remedy the problems facing veterans, dependents, and survivors within the appeals process. DAV, working together with Congress, stakeholders, VBA, and the Board believe that a good solution exists to offer relief for some with appeals. The FDA pilot program is meant to share some of the similarities and build upon the successes of the fully-developed claims program.    The FDA pilot would offer potential appellants a third option if they choose to file an appeal. They could choose the traditional appeals process. They could choose the decision review officer review process, or the FDA process. In the pilot FDA, an appellant would elect to forego several procedural steps within the current standard appeal processing model.    Some components of an FDA election trades the issuance of a statement of the case and hearings for quicker review of the record by the Board, allows an appellant to supply any additional evidence at the time of the election, allows for an opt-out option at any time up to the Board's ruling on the appeal, would preserve all due-process rights under the current appeal processing model if removed from the FDA, and has the potential to save roughly 1,000 days of appeal processing time.    An FDA election is not for everyone. It is not the cure-all to end-all. It gives some appellants another option by offering a safe bypass around some regional office processing requirements. It not only benefits veterans, their dependents and survivors directly by saving them up to 1,000 days of processing time, but would also relieve some of the pressure at the regional office level by diverting FDAs directly to the Board.    The FDA is still imperfect, but we continue to reach out to Congress and other stakeholders to assure that we arrive at a balanced, reasonable, and safe conclusion. We do want to acknowledge the efforts of Congressman O'Rourke, Congressman Cook, and their staffs for their work in the 113th Congress on the Express Appeals Act, which shares many similarities with the FDA proposal.    Finally, we also want to thank the subcommittee and your staffs for the willingness to listen to our input, recommendations, and concerns, and look forward to working together with you to approve the appeals process, for veterans, their dependents, and survivors, now and into the future.    Mr. Chairman, Ranking Member Titus, and members of this subcommittee, thank you for allowing DAV to testify at today's hearing. I am prepared to answer any questions you or the subcommittee may have.    [The prepared statement of Mr. Varela appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you, Mr. Varela.    Mr. Vale from the Vietnam Veterans of America. 5 minutes, please.</t>
   </si>
   <si>
+    <t>Vale</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Vale. Good afternoon, Chairman Abraham, Ranking Member Titus, and distinguished members of the subcommittee. Vietnam Veterans of America thanks you for the opportunity to present our views today. The real question that should be asked is why would we keep a claims system going that is wrong 70 percent of the time? VA-arranged decisions contain too many errors and Board decisions are too inconsistent. Any lasting solution needs to address these problems.    It is a well-established principle that VA's mission is to provide benefits to veterans and their families in a non-adversarial, pro-claimant system. When Congress enacted judicial review for veterans' claims in 1988, it did so with the clear intent to ensure a beneficial, non-adversarial system of veterans' benefits. We support modernizing the VA system so that all veterans receive more timely and accurate adjudication of their claims and appeals. And we support improving the efficiency of the claims adjudication and appeals process. Nonetheless, these changes cannot come at the expense of abandoning due process and other major aspects of the pro-claimant system designed by Congress.    VA's motto is ``To care for him who shall have borne the battle and for his widow and his orphan.'' In practice, however, it appears the mission for some VA bureaucrats is to limit the government's liability to our Nation's veterans by formalizing the claims and appeals process to the point where benefits are unfairly restricted. As General Bradley, VA's first administrator, said in 1946, ``We are dealing with veterans, not procedures; with their problems, not ours.    Veterans should not have to give up any of their rights in order for VA to process their claims and appeals more quickly. In the past, some VBA executives have even gone as far as to suggest reducing the notice of disagreement period from 1 year to just 60 days, change the standard review at the Board from de novo to appellate review, close the record at the Board and eliminate all decision review officer positions. Yet, none of these suggestions actually benefits veterans, but it does make the VA's job easier.    Vietnam Veterans of America has put forth eleven suggestions in our testimony that will move forward to fixing the VA system. You each have a copy of those items. The crutch of the problem here is VA has an inadequate number of staff to deal with its enormous backlog of claims and appeals and they work in a flawed work credit system that favors quality over quantity. Therefore, we suggest fixing the work credit system.    BVA's supervisors and employees need to stop gaming the work credit system. It shouldn't be easier and quicker to deny a claim than to grant one. VA still has to fulfill its statutory duty to assist. There should be no work credit awarded for taking shortcuts. If a claim is denied, no work credit should be awarded until the duty to assist is fulfilled.    Next, VA should increase the number of staff. VBA needs more raters and DROs, and the Board of Veterans' Appeals needs more veteran law judges. For example, let's look at the Waco regional office. They only have eight DROs, yet they have over 18,700 appeals. That is 2,300 appeals per DRO. That is the highest DRO workload in the country. Put in another way, they have eight DROs trying to do the work of 30. The national average is 640 appeals per DRO.    Mr. Chairman, would it surprise you that Waco makes up 15 to 20 percent of all of our appeals at the Board of Veterans' Appeals? The board has 65 veteran law judges. In contrast, the Social Security Administration has over 500. Clearly, the Board needs more veteran law judges as its appeals backlog continues to climb. An even better solution is a round table discussion or discussions among VSOs, members of this committee, and VA representatives to resolve these issues.    In closing, the war against Japan lasted 1,347 days. In 2013, it took VA an average of 1,603 days to issue a final agency decision on remanded veteran appeals. Mr. Chairman, the appeal should not last longer than the largest war our nation has ever fought.    Thank you for the opportunity to present our views today, and I should be glad to answer any questions you may have.    [The prepared statement of Mr. Vale appears in the Appendix]</t>
   </si>
   <si>
@@ -580,10 +655,16 @@
     <t xml:space="preserve">    Mr. Abraham. Well, we certainly thank you for helping our veterans. Continue to do so, please. You are excused.    We will pause just for a minute while we seat this third panel.    Welcome, gentlemen. So we have Mr. Barton Stichman of the National Veterans Legal Service Program; and Mr. Kenneth Carpenter of the National Organization of Veterans' Advocates.    Mr. Stichman, you are first recognized for 5 minutes, sir.</t>
   </si>
   <si>
+    <t>Stichman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Stichman. Thank you, Mr. Chairman, ranking member, and other members of this committee for the opportunity for the National Veterans Legal Services Program to address the appellate claims adjudication process. VA can do much to eliminate the disfunction that currently exists in the appellate claims adjudication system, but Congress can and should play a role in eliminating the disfunction that currently exists. NVLSP urges Congress to adopt five legislative solutions, which I think meet the answer to the questions that the chairman asked the last panel.    First, authorize the BVA to develop evidence itself without having to remand to the AMC or regional office. 15 years ago, then-Secretary of Veterans' Affairs, Anthony Principi, decided a partial solution to the hamster wheel phenomenon was to amend VA regulations to allow the BVA to develop additional evidence itself without remanding to the RO in a case in which the Board determined that a final decision could not be issued because additional development was necessary.    Forcing the BVA to remand to the AMC or the local ROs lengthens the adjudicatory process because the BVA does not have direct authority over the AMC and RO, meaning the BVA cannot control whether the AMC or RO provides expeditious treatment or properly complies with the remand instructions. Allowing BVA development without a remand to the AMC or RO further streamlines the appellate process by eliminating the need for the RO or AMC to review the record and prepare a written supplemental statement of the case before the case is returned to the BVA for another decision.    Second, provide the veterans organizations with the right to petition the VA General Counsel for a binding precedent opinion on the proper interpretation of a statute or regulation. This would address the lack of clear rules and precedents that burden the system now. By providing stakeholders, the veteran service organization, with the right to petition the VAGC to adopt a particular interpretation of the statutes of regulations that are supported by the petitioning VSO, the GC will be required to issue an opinion binding on the ROs and the BVA. Currently, the VA General Counsel has the authority to issue these binding precedent opinions on its own, but this authority is seldom utilized.    Three, authorize the Court of Appeals for Veterans Claims to certify a case as a class action on behalf of similarly-situated VA claimants, require the VA to put a moratorium on the claims of all similarly-situated claimants while the case in court is pending; and once the court finally decides the case, require the VA to apply the decision to all pending claims that were subject to the moratorium. This streamlines the adjudicatory process for similarly-situated cases.    Four, prohibit the regional offices and the BVA in a case in which there is positive evidence supporting the award of benefits from developing negative evidence against the claim unless the RO or BVA first explains in writing why the existing evidence is not sufficient to award benefits.    One reason for the existence of the hamster wheel phenomenon is that in a case in which the veteran submits adequate positive evidence in support of a claim, the BVA, or even the RO, sometimes does not simply award the benefits sought. Instead, the agency extends the life of the claim by remanding to obtain yet another medical opinion from a VHA physician. Veterans advocates call this longstanding VA practice developing to deny. In addition to fostering the hamster wheel phenomenon, the practice is inconsistent with the pro-claimant adjudicatory process and the statutory benefit-of-the-doubt rule.    Five, require the VBA to change its work credit system for VA adjudicators so that raters do not get work credit for denying a claim without first obtaining the evidence needed to comply with the VA duty to assist.    I see my time is up, and I will be happy to answer any questions you may have.    [The prepared statement of Mr. Stichman appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you, Mr. Stichman. Mr. Carpenter, you have 5 minutes there.</t>
+  </si>
+  <si>
+    <t>Carpenter</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Carpenter. Thank you, Mr. Chairman. The National Organization of Veterans Advocates wants to thank this committee for offering us this opportunity to offer testimony on these very important issues. I have been assisting veterans and their families with VA appeals for more than 30 years. I began doing appeals prior to judicial review. And prior to judicial review, although the appeal process was lengthy, it is, in retrospect, reasonable by comparison to what has occurred since judicial review.    It is easy to blame judicial review, but judicial review is not responsible for the backlog in the largely-accumulated delays in processing appeals. NOVA has three specific recommendations: The first recommendation would require a major statutory change; the second and third recommendations, we do not believe would require a major statutory change, but we do believe it would be significant.    First, NOVA recommends the amending of 7105, which is the statutory provision that concerns the appeal process. We recommend the elimination of both the statement of case and the substantive appeal. These requirements are simply no longer needed. They had merit and reason in the prior-to-judicial-review environment. The elimination of these two currently required processes would cut by significant time period the delays inherent in this process. The requirement for a statement of case and a substantive appeal, in fact, now contribute to the delays, as is verified by the statistics.    Second, if the committee and Congress are not willing to amend 7105 with such a major change, 7105 at least needs to be amended to explicitly require the certification of an appeal and the transfer of that appeal to the Board within 60 days. The chairman mentioned in earlier questioning the observation that the VA has very few, if any, time limits imposed upon them by Congress. This is an implementation, this is a recommendation that will impose a specific timeframe.    The current delays in getting appeals physically from the regional offices to the Board is taking too long because the regional office controls the certification of the appeal. Congress needs to tell the regional offices by statute, in no uncertain terms, that within 60 days of the receipt of the substantive appeal, that the appeal will be certified and it will be transferred to the Board.    Now, one of the potential consequences of this is that currently of the 70,000 appeals that the Board has, only half of them are physically before the Board, because the other half have not been transferred to the Board. This is going to put the burden of the appeal process where it belongs, with the appeal. The agency, by not certifying appeals, by not physically moving those claims to the Board, is contributing to this backlog, again, as the statistics clearly demonstrate.    Third and finally, there are two statutory provisions that deal with remands and use ambiguous and unclear language for the handling of a remand from both court and the Board. And the statute uses the term ``expeditiously handled.'' The fact is, is unless this Congress by statute tells the agency what the expectation is, expeditious treatment is going to remain ambiguous. We recommend a 6-month action report if the remand has not been resolved within that time period. And after that date that written explanations every 6 months be provided for why there has been no resolution.    The removal of the ambiguity and the imposition of specific time frames, we believe, will clearly assist the problems that exist with remands because there is no clarity of Congress' expectation as to what the timeframe is to get a remand resolved. And if you don't tell them, then you have seen what is going to happen. They are simply going to be dealt with as the VA chooses to deal with them, which is not acceptable.    [The prepared statement of Mr. Carpenter appears in the Appendix]</t>
@@ -965,7 +1046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:I186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -973,7 +1054,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,4445 +1076,5207 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
       <c r="H43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
       <c r="H45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G47" t="s">
+        <v>66</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G50" t="s">
+        <v>66</v>
+      </c>
       <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G52" t="s">
+        <v>66</v>
+      </c>
       <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G54" t="s">
+        <v>66</v>
+      </c>
       <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>58</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G56" t="s">
+        <v>66</v>
+      </c>
       <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>58</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G58" t="s">
+        <v>66</v>
+      </c>
       <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>58</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G61" t="s">
+        <v>66</v>
+      </c>
       <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>58</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G63" t="s">
+        <v>66</v>
+      </c>
       <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>58</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G65" t="s">
+        <v>66</v>
+      </c>
       <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>58</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G67" t="s">
+        <v>66</v>
+      </c>
       <c r="H67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G69" t="s">
+        <v>91</v>
+      </c>
       <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G71" t="s">
+        <v>91</v>
+      </c>
       <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>25</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>81</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G73" t="s">
+        <v>91</v>
+      </c>
       <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
       <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>88</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G75" t="s">
+        <v>100</v>
+      </c>
       <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>25</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>88</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G77" t="s">
+        <v>100</v>
+      </c>
       <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>25</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G79" t="s">
+        <v>100</v>
+      </c>
       <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>25</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>88</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G81" t="s">
+        <v>100</v>
+      </c>
       <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>97</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G83" t="s">
+        <v>111</v>
+      </c>
       <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>97</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G85" t="s">
+        <v>111</v>
+      </c>
       <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>97</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G87" t="s">
+        <v>111</v>
+      </c>
       <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>25</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>97</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G89" t="s">
+        <v>111</v>
+      </c>
       <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>25</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>97</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G91" t="s">
+        <v>111</v>
+      </c>
       <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>108</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G93" t="s">
+        <v>124</v>
+      </c>
       <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>128</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>25</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G97" t="s">
+        <v>128</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>25</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G99" t="s">
+        <v>128</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>25</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
+        <v>128</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>25</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
+        <v>128</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G105" t="s">
+        <v>25</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G107" t="s">
+        <v>25</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
       <c r="H108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G109" t="s">
+        <v>25</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
       <c r="H110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G111" t="s">
+        <v>22</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
       <c r="H112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G113" t="s">
+        <v>22</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
       <c r="H114" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G115" t="s">
+        <v>25</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
       <c r="H116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G117" t="s">
+        <v>25</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G119" t="s">
+        <v>25</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
       <c r="H120" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G121" t="s">
+        <v>25</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
       <c r="H122" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>17</v>
+      </c>
       <c r="H123" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>22</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>17</v>
+      </c>
       <c r="H125" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>22</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>17</v>
+      </c>
       <c r="H127" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G128" t="s">
+        <v>22</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>17</v>
+      </c>
       <c r="H129" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I129" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
       <c r="H130" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>147</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G131" t="s">
+        <v>166</v>
+      </c>
       <c r="H131" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I131" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
       <c r="H132" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>108</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G133" t="s">
+        <v>124</v>
+      </c>
       <c r="H133" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G134" t="s">
+        <v>25</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>108</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G135" t="s">
+        <v>124</v>
+      </c>
       <c r="H135" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I135" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
       <c r="H136" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G137" t="s">
+        <v>174</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>13</v>
+      </c>
       <c r="H138" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>16</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G139" t="s">
+        <v>177</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
       <c r="H140" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G141" t="s">
+        <v>180</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
       <c r="H142" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G143" t="s">
+        <v>183</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
       <c r="H144" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G145" t="s">
+        <v>186</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>13</v>
+      </c>
       <c r="H146" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G147" t="s">
+        <v>183</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
       <c r="H148" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G149" t="s">
+        <v>183</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>13</v>
+      </c>
       <c r="H150" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>16</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G151" t="s">
+        <v>180</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
       <c r="H152" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G153" t="s">
+        <v>177</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
       <c r="H154" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G155" t="s">
+        <v>174</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
       <c r="H156" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>16</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G157" t="s">
+        <v>186</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>13</v>
+      </c>
       <c r="H158" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I158" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>13</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G159" t="s">
+        <v>17</v>
+      </c>
       <c r="H159" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I159" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>13</v>
+      </c>
       <c r="H160" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G161" t="s">
+        <v>174</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>11</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
       <c r="H162" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>16</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>177</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>11</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G164" t="s">
+        <v>13</v>
+      </c>
       <c r="H164" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I164" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="166" spans="1:8">
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G166" t="s">
+        <v>13</v>
+      </c>
       <c r="H166" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I166" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>16</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>183</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G168" t="s">
+        <v>13</v>
+      </c>
       <c r="H168" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I168" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>16</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G169" t="s">
+        <v>186</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>11</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
       <c r="H170" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I170" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>13</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G171" t="s">
+        <v>17</v>
+      </c>
       <c r="H171" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I171" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>11</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G172" t="s">
+        <v>13</v>
+      </c>
       <c r="H172" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I172" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>16</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G173" t="s">
+        <v>213</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G174" t="s">
+        <v>13</v>
+      </c>
       <c r="H174" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I174" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>16</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G175" t="s">
+        <v>216</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>11</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G176" t="s">
+        <v>13</v>
+      </c>
       <c r="H176" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I176" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>13</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G177" t="s">
+        <v>17</v>
+      </c>
       <c r="H177" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I177" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>11</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G178" t="s">
+        <v>13</v>
+      </c>
       <c r="H178" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I178" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>13</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G179" t="s">
+        <v>17</v>
+      </c>
       <c r="H179" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I179" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G180" t="s">
+        <v>13</v>
+      </c>
       <c r="H180" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I180" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>16</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G181" t="s">
+        <v>213</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G182" t="s">
+        <v>13</v>
+      </c>
       <c r="H182" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I182" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>16</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G183" t="s">
+        <v>216</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G184" t="s">
+        <v>13</v>
+      </c>
       <c r="H184" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I184" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>16</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G185" t="s">
+        <v>216</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G186" t="s">
+        <v>13</v>
+      </c>
       <c r="H186" t="s">
-        <v>200</v>
+        <v>14</v>
+      </c>
+      <c r="I186" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97993.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97993.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412630</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Abraham</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412318</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Titus</t>
   </si>
   <si>
@@ -212,6 +221,9 @@
   </si>
   <si>
     <t>412191</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Lamborn</t>
@@ -1046,7 +1058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I186"/>
+  <dimension ref="A1:J186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1054,7 +1066,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,5204 +1091,5596 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>25</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>25</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G50" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I50" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G52" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H52" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G54" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H54" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G56" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H56" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>25</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G58" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H58" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>25</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G61" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H61" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I61" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>22</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G63" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H63" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G65" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H65" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I65" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>22</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>25</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G67" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H67" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I67" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G69" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>25</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G71" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>25</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G73" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="H73" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G75" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>25</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G77" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>25</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G79" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>25</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G81" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G83" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="H83" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I83" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>25</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G85" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="H85" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>22</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>25</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G87" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I87" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>25</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G89" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="H89" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I89" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G91" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I91" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G93" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I93" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>128</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>132</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>25</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>28</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s">
-        <v>128</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>132</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>25</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>28</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s">
-        <v>128</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>132</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>25</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>28</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" t="s">
-        <v>128</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>132</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>25</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>28</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" t="s">
-        <v>128</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>132</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s">
-        <v>25</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>28</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" t="s">
-        <v>25</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>28</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J108" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s">
-        <v>25</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>28</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I110" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J110" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s">
-        <v>22</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>25</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s">
-        <v>22</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>25</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I114" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" t="s">
-        <v>25</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>28</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
-      </c>
-      <c r="G117" t="s">
-        <v>25</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>28</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" t="s">
-        <v>25</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>28</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I120" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J120" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" t="s">
-        <v>25</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>28</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I122" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J122" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G123" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H123" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I123" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J123" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>22</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>25</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G125" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H125" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I125" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J125" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" t="s">
-        <v>22</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>25</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G127" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H127" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I127" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J127" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
-      </c>
-      <c r="G128" t="s">
-        <v>22</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>25</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G129" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H129" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I129" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J129" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I130" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G131" t="s">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="H131" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I131" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J131" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I132" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J132" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G133" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="H133" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I133" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J133" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" t="s">
-        <v>25</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>28</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G135" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="H135" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I135" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J135" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>21</v>
-      </c>
-      <c r="G137" t="s">
-        <v>174</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>178</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I138" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J138" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
-      </c>
-      <c r="G139" t="s">
-        <v>177</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>181</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I140" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J140" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" t="s">
-        <v>180</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>184</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I142" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>21</v>
-      </c>
-      <c r="G143" t="s">
-        <v>183</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>187</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>21</v>
-      </c>
-      <c r="G145" t="s">
-        <v>186</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>190</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I146" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J146" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>21</v>
-      </c>
-      <c r="G147" t="s">
-        <v>183</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>187</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I148" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>21</v>
-      </c>
-      <c r="G149" t="s">
-        <v>183</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>187</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I150" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J150" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>21</v>
-      </c>
-      <c r="G151" t="s">
-        <v>180</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>184</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I152" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J152" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>21</v>
-      </c>
-      <c r="G153" t="s">
-        <v>177</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>181</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I154" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J154" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>21</v>
-      </c>
-      <c r="G155" t="s">
-        <v>174</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>178</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I156" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J156" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>21</v>
-      </c>
-      <c r="G157" t="s">
-        <v>186</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>190</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I158" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J158" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G159" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H159" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I159" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J159" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I160" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J160" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>21</v>
-      </c>
-      <c r="G161" t="s">
-        <v>174</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>178</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I162" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J162" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>21</v>
-      </c>
-      <c r="G163" t="s">
-        <v>177</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>181</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I164" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J164" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>21</v>
-      </c>
-      <c r="G165" t="s">
-        <v>180</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>184</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I166" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J166" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>21</v>
-      </c>
-      <c r="G167" t="s">
-        <v>183</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>187</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I168" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J168" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>21</v>
-      </c>
-      <c r="G169" t="s">
-        <v>186</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>190</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I170" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J170" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G171" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H171" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I171" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J171" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I172" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J172" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>21</v>
-      </c>
-      <c r="G173" t="s">
-        <v>213</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>217</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H174" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I174" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J174" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>21</v>
-      </c>
-      <c r="G175" t="s">
-        <v>216</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>220</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I176" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J176" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G177" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H177" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I177" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J177" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I178" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J178" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G179" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H179" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I179" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J179" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G180" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H180" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I180" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J180" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>21</v>
-      </c>
-      <c r="G181" t="s">
-        <v>213</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>217</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H182" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I182" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J182" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>21</v>
-      </c>
-      <c r="G183" t="s">
-        <v>216</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>220</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G184" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H184" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I184" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J184" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>21</v>
-      </c>
-      <c r="G185" t="s">
-        <v>216</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>220</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G186" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H186" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I186" t="s">
-        <v>227</v>
+        <v>16</v>
+      </c>
+      <c r="J186" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
